--- a/temperatury.xlsx
+++ b/temperatury.xlsx
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>rok</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Suma końcowa</t>
+  </si>
+  <si>
+    <t>ciąg</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,20 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -1554,7 +1570,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="R1:R431" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -3695,7 +3711,7 @@
         <v>-11.2</v>
       </c>
       <c r="N2" s="1">
-        <f>AVERAGE(B2:M2)</f>
+        <f t="shared" ref="N2:N65" si="0">AVERAGE(B2:M2)</f>
         <v>4.7416666666666663</v>
       </c>
     </row>
@@ -3740,7 +3756,7 @@
         <v>-8.4</v>
       </c>
       <c r="N3">
-        <f>AVERAGE(B3:M3)</f>
+        <f t="shared" si="0"/>
         <v>5.208333333333333</v>
       </c>
     </row>
@@ -3785,7 +3801,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="N4">
-        <f>AVERAGE(B4:M4)</f>
+        <f t="shared" si="0"/>
         <v>5.2833333333333341</v>
       </c>
     </row>
@@ -3830,7 +3846,7 @@
         <v>-1.3</v>
       </c>
       <c r="N5">
-        <f>AVERAGE(B5:M5)</f>
+        <f t="shared" si="0"/>
         <v>5.3166666666666664</v>
       </c>
     </row>
@@ -3875,7 +3891,7 @@
         <v>-5.7</v>
       </c>
       <c r="N6">
-        <f>AVERAGE(B6:M6)</f>
+        <f t="shared" si="0"/>
         <v>5.3666666666666663</v>
       </c>
     </row>
@@ -3920,7 +3936,7 @@
         <v>-2.7</v>
       </c>
       <c r="N7">
-        <f>AVERAGE(B7:M7)</f>
+        <f t="shared" si="0"/>
         <v>5.75</v>
       </c>
     </row>
@@ -3965,7 +3981,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="N8">
-        <f>AVERAGE(B8:M8)</f>
+        <f t="shared" si="0"/>
         <v>5.7500000000000009</v>
       </c>
     </row>
@@ -4010,7 +4026,7 @@
         <v>-9.3000000000000007</v>
       </c>
       <c r="N9">
-        <f>AVERAGE(B9:M9)</f>
+        <f t="shared" si="0"/>
         <v>5.791666666666667</v>
       </c>
     </row>
@@ -4055,7 +4071,7 @@
         <v>-7.9</v>
       </c>
       <c r="N10">
-        <f>AVERAGE(B10:M10)</f>
+        <f t="shared" si="0"/>
         <v>5.8166666666666664</v>
       </c>
     </row>
@@ -4100,7 +4116,7 @@
         <v>-2.5</v>
       </c>
       <c r="N11">
-        <f>AVERAGE(B11:M11)</f>
+        <f t="shared" si="0"/>
         <v>5.8249999999999993</v>
       </c>
     </row>
@@ -4145,7 +4161,7 @@
         <v>-10.9</v>
       </c>
       <c r="N12">
-        <f>AVERAGE(B12:M12)</f>
+        <f t="shared" si="0"/>
         <v>5.8249999999999993</v>
       </c>
     </row>
@@ -4190,7 +4206,7 @@
         <v>-4.7</v>
       </c>
       <c r="N13">
-        <f>AVERAGE(B13:M13)</f>
+        <f t="shared" si="0"/>
         <v>5.916666666666667</v>
       </c>
     </row>
@@ -4235,7 +4251,7 @@
         <v>-6.4</v>
       </c>
       <c r="N14">
-        <f>AVERAGE(B14:M14)</f>
+        <f t="shared" si="0"/>
         <v>5.9416666666666664</v>
       </c>
     </row>
@@ -4280,7 +4296,7 @@
         <v>-3.6</v>
       </c>
       <c r="N15">
-        <f>AVERAGE(B15:M15)</f>
+        <f t="shared" si="0"/>
         <v>6.1333333333333337</v>
       </c>
     </row>
@@ -4325,7 +4341,7 @@
         <v>-6.1</v>
       </c>
       <c r="N16">
-        <f>AVERAGE(B16:M16)</f>
+        <f t="shared" si="0"/>
         <v>6.1750000000000007</v>
       </c>
     </row>
@@ -4370,7 +4386,7 @@
         <v>-8.9</v>
       </c>
       <c r="N17">
-        <f>AVERAGE(B17:M17)</f>
+        <f t="shared" si="0"/>
         <v>6.1833333333333327</v>
       </c>
     </row>
@@ -4415,7 +4431,7 @@
         <v>-7.2</v>
       </c>
       <c r="N18">
-        <f>AVERAGE(B18:M18)</f>
+        <f t="shared" si="0"/>
         <v>6.1999999999999993</v>
       </c>
     </row>
@@ -4460,7 +4476,7 @@
         <v>-14.8</v>
       </c>
       <c r="N19">
-        <f>AVERAGE(B19:M19)</f>
+        <f t="shared" si="0"/>
         <v>6.2250000000000014</v>
       </c>
     </row>
@@ -4505,7 +4521,7 @@
         <v>-0.3</v>
       </c>
       <c r="N20">
-        <f>AVERAGE(B20:M20)</f>
+        <f t="shared" si="0"/>
         <v>6.366666666666668</v>
       </c>
     </row>
@@ -4550,7 +4566,7 @@
         <v>-0.9</v>
       </c>
       <c r="N21">
-        <f>AVERAGE(B21:M21)</f>
+        <f t="shared" si="0"/>
         <v>6.3916666666666657</v>
       </c>
     </row>
@@ -4595,7 +4611,7 @@
         <v>-5.5</v>
       </c>
       <c r="N22">
-        <f>AVERAGE(B22:M22)</f>
+        <f t="shared" si="0"/>
         <v>6.4083333333333323</v>
       </c>
     </row>
@@ -4640,7 +4656,7 @@
         <v>-6.2</v>
       </c>
       <c r="N23">
-        <f>AVERAGE(B23:M23)</f>
+        <f t="shared" si="0"/>
         <v>6.416666666666667</v>
       </c>
     </row>
@@ -4685,7 +4701,7 @@
         <v>-1.3</v>
       </c>
       <c r="N24">
-        <f>AVERAGE(B24:M24)</f>
+        <f t="shared" si="0"/>
         <v>6.416666666666667</v>
       </c>
     </row>
@@ -4730,7 +4746,7 @@
         <v>-0.1</v>
       </c>
       <c r="N25">
-        <f>AVERAGE(B25:M25)</f>
+        <f t="shared" si="0"/>
         <v>6.4166666666666679</v>
       </c>
     </row>
@@ -4775,7 +4791,7 @@
         <v>-7.7</v>
       </c>
       <c r="N26">
-        <f>AVERAGE(B26:M26)</f>
+        <f t="shared" si="0"/>
         <v>6.4833333333333334</v>
       </c>
     </row>
@@ -4820,7 +4836,7 @@
         <v>-6.3</v>
       </c>
       <c r="N27">
-        <f>AVERAGE(B27:M27)</f>
+        <f t="shared" si="0"/>
         <v>6.5166666666666666</v>
       </c>
     </row>
@@ -4865,7 +4881,7 @@
         <v>-1.2</v>
       </c>
       <c r="N28">
-        <f>AVERAGE(B28:M28)</f>
+        <f t="shared" si="0"/>
         <v>6.5416666666666652</v>
       </c>
     </row>
@@ -4910,7 +4926,7 @@
         <v>-8.3000000000000007</v>
       </c>
       <c r="N29">
-        <f>AVERAGE(B29:M29)</f>
+        <f t="shared" si="0"/>
         <v>6.541666666666667</v>
       </c>
     </row>
@@ -4955,7 +4971,7 @@
         <v>-3.3</v>
       </c>
       <c r="N30">
-        <f>AVERAGE(B30:M30)</f>
+        <f t="shared" si="0"/>
         <v>6.5666666666666673</v>
       </c>
     </row>
@@ -5000,7 +5016,7 @@
         <v>-6.5</v>
       </c>
       <c r="N31">
-        <f>AVERAGE(B31:M31)</f>
+        <f t="shared" si="0"/>
         <v>6.6166666666666671</v>
       </c>
     </row>
@@ -5045,7 +5061,7 @@
         <v>-3.5</v>
       </c>
       <c r="N32">
-        <f>AVERAGE(B32:M32)</f>
+        <f t="shared" si="0"/>
         <v>6.6333333333333329</v>
       </c>
     </row>
@@ -5090,7 +5106,7 @@
         <v>1.6</v>
       </c>
       <c r="N33">
-        <f>AVERAGE(B33:M33)</f>
+        <f t="shared" si="0"/>
         <v>6.6333333333333329</v>
       </c>
     </row>
@@ -5135,7 +5151,7 @@
         <v>-0.2</v>
       </c>
       <c r="N34">
-        <f>AVERAGE(B34:M34)</f>
+        <f t="shared" si="0"/>
         <v>6.6333333333333337</v>
       </c>
     </row>
@@ -5180,7 +5196,7 @@
         <v>-0.2</v>
       </c>
       <c r="N35">
-        <f>AVERAGE(B35:M35)</f>
+        <f t="shared" si="0"/>
         <v>6.6416666666666666</v>
       </c>
     </row>
@@ -5225,7 +5241,7 @@
         <v>-5.3</v>
       </c>
       <c r="N36">
-        <f>AVERAGE(B36:M36)</f>
+        <f t="shared" si="0"/>
         <v>6.6499999999999995</v>
       </c>
     </row>
@@ -5270,7 +5286,7 @@
         <v>-6.8</v>
       </c>
       <c r="N37">
-        <f>AVERAGE(B37:M37)</f>
+        <f t="shared" si="0"/>
         <v>6.6999999999999993</v>
       </c>
     </row>
@@ -5315,7 +5331,7 @@
         <v>-3.3</v>
       </c>
       <c r="N38">
-        <f>AVERAGE(B38:M38)</f>
+        <f t="shared" si="0"/>
         <v>6.7083333333333321</v>
       </c>
     </row>
@@ -5360,7 +5376,7 @@
         <v>-4.2</v>
       </c>
       <c r="N39">
-        <f>AVERAGE(B39:M39)</f>
+        <f t="shared" si="0"/>
         <v>6.708333333333333</v>
       </c>
     </row>
@@ -5405,7 +5421,7 @@
         <v>-5.5</v>
       </c>
       <c r="N40">
-        <f>AVERAGE(B40:M40)</f>
+        <f t="shared" si="0"/>
         <v>6.7833333333333341</v>
       </c>
     </row>
@@ -5450,7 +5466,7 @@
         <v>-1.9</v>
       </c>
       <c r="N41">
-        <f>AVERAGE(B41:M41)</f>
+        <f t="shared" si="0"/>
         <v>6.799999999999998</v>
       </c>
     </row>
@@ -5495,7 +5511,7 @@
         <v>1.6</v>
       </c>
       <c r="N42">
-        <f>AVERAGE(B42:M42)</f>
+        <f t="shared" si="0"/>
         <v>6.833333333333333</v>
       </c>
     </row>
@@ -5540,7 +5556,7 @@
         <v>-6.8</v>
       </c>
       <c r="N43">
-        <f>AVERAGE(B43:M43)</f>
+        <f t="shared" si="0"/>
         <v>6.8666666666666671</v>
       </c>
     </row>
@@ -5585,7 +5601,7 @@
         <v>-2.5</v>
       </c>
       <c r="N44">
-        <f>AVERAGE(B44:M44)</f>
+        <f t="shared" si="0"/>
         <v>6.875</v>
       </c>
     </row>
@@ -5630,7 +5646,7 @@
         <v>0.9</v>
       </c>
       <c r="N45">
-        <f>AVERAGE(B45:M45)</f>
+        <f t="shared" si="0"/>
         <v>6.8916666666666666</v>
       </c>
     </row>
@@ -5675,7 +5691,7 @@
         <v>-0.5</v>
       </c>
       <c r="N46">
-        <f>AVERAGE(B46:M46)</f>
+        <f t="shared" si="0"/>
         <v>6.8916666666666684</v>
       </c>
     </row>
@@ -5720,7 +5736,7 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="N47">
-        <f>AVERAGE(B47:M47)</f>
+        <f t="shared" si="0"/>
         <v>6.924999999999998</v>
       </c>
     </row>
@@ -5765,7 +5781,7 @@
         <v>-0.6</v>
       </c>
       <c r="N48">
-        <f>AVERAGE(B48:M48)</f>
+        <f t="shared" si="0"/>
         <v>6.9416666666666673</v>
       </c>
     </row>
@@ -5810,7 +5826,7 @@
         <v>-1.8</v>
       </c>
       <c r="N49">
-        <f>AVERAGE(B49:M49)</f>
+        <f t="shared" si="0"/>
         <v>6.958333333333333</v>
       </c>
     </row>
@@ -5855,7 +5871,7 @@
         <v>1.3</v>
       </c>
       <c r="N50">
-        <f>AVERAGE(B50:M50)</f>
+        <f t="shared" si="0"/>
         <v>6.9749999999999988</v>
       </c>
     </row>
@@ -5900,7 +5916,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="N51">
-        <f>AVERAGE(B51:M51)</f>
+        <f t="shared" si="0"/>
         <v>6.991666666666668</v>
       </c>
     </row>
@@ -5945,7 +5961,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N52">
-        <f>AVERAGE(B52:M52)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -5990,7 +6006,7 @@
         <v>-2.1</v>
       </c>
       <c r="N53">
-        <f>AVERAGE(B53:M53)</f>
+        <f t="shared" si="0"/>
         <v>7.0666666666666664</v>
       </c>
     </row>
@@ -6035,7 +6051,7 @@
         <v>-0.5</v>
       </c>
       <c r="N54">
-        <f>AVERAGE(B54:M54)</f>
+        <f t="shared" si="0"/>
         <v>7.0916666666666677</v>
       </c>
     </row>
@@ -6080,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <f>AVERAGE(B55:M55)</f>
+        <f t="shared" si="0"/>
         <v>7.1000000000000005</v>
       </c>
     </row>
@@ -6125,7 +6141,7 @@
         <v>-4.3</v>
       </c>
       <c r="N56">
-        <f>AVERAGE(B56:M56)</f>
+        <f t="shared" si="0"/>
         <v>7.1083333333333343</v>
       </c>
     </row>
@@ -6170,7 +6186,7 @@
         <v>-0.7</v>
       </c>
       <c r="N57">
-        <f>AVERAGE(B57:M57)</f>
+        <f t="shared" si="0"/>
         <v>7.1499999999999995</v>
       </c>
     </row>
@@ -6215,7 +6231,7 @@
         <v>-0.3</v>
       </c>
       <c r="N58">
-        <f>AVERAGE(B58:M58)</f>
+        <f t="shared" si="0"/>
         <v>7.166666666666667</v>
       </c>
     </row>
@@ -6260,7 +6276,7 @@
         <v>-0.4</v>
       </c>
       <c r="N59">
-        <f>AVERAGE(B59:M59)</f>
+        <f t="shared" si="0"/>
         <v>7.166666666666667</v>
       </c>
     </row>
@@ -6305,7 +6321,7 @@
         <v>-8.1</v>
       </c>
       <c r="N60">
-        <f>AVERAGE(B60:M60)</f>
+        <f t="shared" si="0"/>
         <v>7.1666666666666679</v>
       </c>
     </row>
@@ -6350,7 +6366,7 @@
         <v>-0.9</v>
       </c>
       <c r="N61">
-        <f>AVERAGE(B61:M61)</f>
+        <f t="shared" si="0"/>
         <v>7.1833333333333336</v>
       </c>
     </row>
@@ -6395,7 +6411,7 @@
         <v>0.8</v>
       </c>
       <c r="N62">
-        <f>AVERAGE(B62:M62)</f>
+        <f t="shared" si="0"/>
         <v>7.1833333333333336</v>
       </c>
     </row>
@@ -6440,7 +6456,7 @@
         <v>1.9</v>
       </c>
       <c r="N63">
-        <f>AVERAGE(B63:M63)</f>
+        <f t="shared" si="0"/>
         <v>7.1999999999999993</v>
       </c>
     </row>
@@ -6485,7 +6501,7 @@
         <v>-0.8</v>
       </c>
       <c r="N64">
-        <f>AVERAGE(B64:M64)</f>
+        <f t="shared" si="0"/>
         <v>7.2166666666666659</v>
       </c>
     </row>
@@ -6530,7 +6546,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="N65">
-        <f>AVERAGE(B65:M65)</f>
+        <f t="shared" si="0"/>
         <v>7.241666666666668</v>
       </c>
     </row>
@@ -6575,7 +6591,7 @@
         <v>0.7</v>
       </c>
       <c r="N66">
-        <f>AVERAGE(B66:M66)</f>
+        <f t="shared" ref="N66:N129" si="1">AVERAGE(B66:M66)</f>
         <v>7.241666666666668</v>
       </c>
     </row>
@@ -6620,7 +6636,7 @@
         <v>-2.4</v>
       </c>
       <c r="N67">
-        <f>AVERAGE(B67:M67)</f>
+        <f t="shared" si="1"/>
         <v>7.258333333333332</v>
       </c>
     </row>
@@ -6665,7 +6681,7 @@
         <v>-5.6</v>
       </c>
       <c r="N68">
-        <f>AVERAGE(B68:M68)</f>
+        <f t="shared" si="1"/>
         <v>7.2583333333333337</v>
       </c>
     </row>
@@ -6710,7 +6726,7 @@
         <v>0.5</v>
       </c>
       <c r="N69">
-        <f>AVERAGE(B69:M69)</f>
+        <f t="shared" si="1"/>
         <v>7.2666666666666657</v>
       </c>
     </row>
@@ -6755,7 +6771,7 @@
         <v>-2.1</v>
       </c>
       <c r="N70">
-        <f>AVERAGE(B70:M70)</f>
+        <f t="shared" si="1"/>
         <v>7.2749999999999995</v>
       </c>
     </row>
@@ -6800,7 +6816,7 @@
         <v>-2.9</v>
       </c>
       <c r="N71">
-        <f>AVERAGE(B71:M71)</f>
+        <f t="shared" si="1"/>
         <v>7.2833333333333323</v>
       </c>
     </row>
@@ -6845,7 +6861,7 @@
         <v>-3.1</v>
       </c>
       <c r="N72">
-        <f>AVERAGE(B72:M72)</f>
+        <f t="shared" si="1"/>
         <v>7.3250000000000002</v>
       </c>
     </row>
@@ -6890,7 +6906,7 @@
         <v>-1.8</v>
       </c>
       <c r="N73">
-        <f>AVERAGE(B73:M73)</f>
+        <f t="shared" si="1"/>
         <v>7.3583333333333334</v>
       </c>
     </row>
@@ -6935,7 +6951,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N74">
-        <f>AVERAGE(B74:M74)</f>
+        <f t="shared" si="1"/>
         <v>7.3666666666666645</v>
       </c>
     </row>
@@ -6980,7 +6996,7 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="N75">
-        <f>AVERAGE(B75:M75)</f>
+        <f t="shared" si="1"/>
         <v>7.3749999999999991</v>
       </c>
     </row>
@@ -7025,7 +7041,7 @@
         <v>-5.3</v>
       </c>
       <c r="N76">
-        <f>AVERAGE(B76:M76)</f>
+        <f t="shared" si="1"/>
         <v>7.3749999999999991</v>
       </c>
     </row>
@@ -7070,7 +7086,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="N77">
-        <f>AVERAGE(B77:M77)</f>
+        <f t="shared" si="1"/>
         <v>7.3833333333333337</v>
       </c>
     </row>
@@ -7115,7 +7131,7 @@
         <v>2.6</v>
       </c>
       <c r="N78">
-        <f>AVERAGE(B78:M78)</f>
+        <f t="shared" si="1"/>
         <v>7.3916666666666666</v>
       </c>
     </row>
@@ -7160,7 +7176,7 @@
         <v>-4</v>
       </c>
       <c r="N79">
-        <f>AVERAGE(B79:M79)</f>
+        <f t="shared" si="1"/>
         <v>7.45</v>
       </c>
     </row>
@@ -7205,7 +7221,7 @@
         <v>-4.5</v>
       </c>
       <c r="N80">
-        <f>AVERAGE(B80:M80)</f>
+        <f t="shared" si="1"/>
         <v>7.458333333333333</v>
       </c>
     </row>
@@ -7250,7 +7266,7 @@
         <v>-4.2</v>
       </c>
       <c r="N81">
-        <f>AVERAGE(B81:M81)</f>
+        <f t="shared" si="1"/>
         <v>7.4666666666666677</v>
       </c>
     </row>
@@ -7295,7 +7311,7 @@
         <v>-0.4</v>
       </c>
       <c r="N82">
-        <f>AVERAGE(B82:M82)</f>
+        <f t="shared" si="1"/>
         <v>7.4750000000000005</v>
       </c>
     </row>
@@ -7340,7 +7356,7 @@
         <v>-0.1</v>
       </c>
       <c r="N83">
-        <f>AVERAGE(B83:M83)</f>
+        <f t="shared" si="1"/>
         <v>7.4833333333333334</v>
       </c>
     </row>
@@ -7385,7 +7401,7 @@
         <v>0.9</v>
       </c>
       <c r="N84">
-        <f>AVERAGE(B84:M84)</f>
+        <f t="shared" si="1"/>
         <v>7.4833333333333343</v>
       </c>
     </row>
@@ -7430,7 +7446,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="N85">
-        <f>AVERAGE(B85:M85)</f>
+        <f t="shared" si="1"/>
         <v>7.4916666666666671</v>
       </c>
     </row>
@@ -7475,7 +7491,7 @@
         <v>-1.2</v>
       </c>
       <c r="N86">
-        <f>AVERAGE(B86:M86)</f>
+        <f t="shared" si="1"/>
         <v>7.5083333333333329</v>
       </c>
     </row>
@@ -7520,7 +7536,7 @@
         <v>1</v>
       </c>
       <c r="N87">
-        <f>AVERAGE(B87:M87)</f>
+        <f t="shared" si="1"/>
         <v>7.5083333333333329</v>
       </c>
     </row>
@@ -7565,7 +7581,7 @@
         <v>-2.7</v>
       </c>
       <c r="N88">
-        <f>AVERAGE(B88:M88)</f>
+        <f t="shared" si="1"/>
         <v>7.5166666666666666</v>
       </c>
     </row>
@@ -7610,7 +7626,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="N89">
-        <f>AVERAGE(B89:M89)</f>
+        <f t="shared" si="1"/>
         <v>7.5249999999999995</v>
       </c>
     </row>
@@ -7655,7 +7671,7 @@
         <v>0.9</v>
       </c>
       <c r="N90">
-        <f>AVERAGE(B90:M90)</f>
+        <f t="shared" si="1"/>
         <v>7.5250000000000012</v>
       </c>
     </row>
@@ -7700,7 +7716,7 @@
         <v>-0.5</v>
       </c>
       <c r="N91">
-        <f>AVERAGE(B91:M91)</f>
+        <f t="shared" si="1"/>
         <v>7.541666666666667</v>
       </c>
     </row>
@@ -7745,7 +7761,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="N92">
-        <f>AVERAGE(B92:M92)</f>
+        <f t="shared" si="1"/>
         <v>7.541666666666667</v>
       </c>
     </row>
@@ -7790,7 +7806,7 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="N93">
-        <f>AVERAGE(B93:M93)</f>
+        <f t="shared" si="1"/>
         <v>7.5583333333333327</v>
       </c>
     </row>
@@ -7835,7 +7851,7 @@
         <v>-1</v>
       </c>
       <c r="N94">
-        <f>AVERAGE(B94:M94)</f>
+        <f t="shared" si="1"/>
         <v>7.5583333333333336</v>
       </c>
     </row>
@@ -7880,7 +7896,7 @@
         <v>-6.1</v>
       </c>
       <c r="N95">
-        <f>AVERAGE(B95:M95)</f>
+        <f t="shared" si="1"/>
         <v>7.5666666666666673</v>
       </c>
     </row>
@@ -7925,7 +7941,7 @@
         <v>1.3</v>
       </c>
       <c r="N96">
-        <f>AVERAGE(B96:M96)</f>
+        <f t="shared" si="1"/>
         <v>7.583333333333333</v>
       </c>
     </row>
@@ -7970,7 +7986,7 @@
         <v>-8</v>
       </c>
       <c r="N97">
-        <f>AVERAGE(B97:M97)</f>
+        <f t="shared" si="1"/>
         <v>7.5916666666666659</v>
       </c>
     </row>
@@ -8015,7 +8031,7 @@
         <v>-0.3</v>
       </c>
       <c r="N98">
-        <f>AVERAGE(B98:M98)</f>
+        <f t="shared" si="1"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
@@ -8060,7 +8076,7 @@
         <v>-1.5</v>
       </c>
       <c r="N99">
-        <f>AVERAGE(B99:M99)</f>
+        <f t="shared" si="1"/>
         <v>7.6000000000000005</v>
       </c>
     </row>
@@ -8105,7 +8121,7 @@
         <v>-0.4</v>
       </c>
       <c r="N100">
-        <f>AVERAGE(B100:M100)</f>
+        <f t="shared" si="1"/>
         <v>7.625</v>
       </c>
     </row>
@@ -8150,7 +8166,7 @@
         <v>-0.2</v>
       </c>
       <c r="N101">
-        <f>AVERAGE(B101:M101)</f>
+        <f t="shared" si="1"/>
         <v>7.6333333333333329</v>
       </c>
     </row>
@@ -8195,7 +8211,7 @@
         <v>1.7</v>
       </c>
       <c r="N102">
-        <f>AVERAGE(B102:M102)</f>
+        <f t="shared" si="1"/>
         <v>7.6333333333333329</v>
       </c>
     </row>
@@ -8240,7 +8256,7 @@
         <v>-1.8</v>
       </c>
       <c r="N103">
-        <f>AVERAGE(B103:M103)</f>
+        <f t="shared" si="1"/>
         <v>7.6499999999999995</v>
       </c>
     </row>
@@ -8285,7 +8301,7 @@
         <v>-2</v>
       </c>
       <c r="N104">
-        <f>AVERAGE(B104:M104)</f>
+        <f t="shared" si="1"/>
         <v>7.6833333333333345</v>
       </c>
     </row>
@@ -8330,7 +8346,7 @@
         <v>-3.1</v>
       </c>
       <c r="N105">
-        <f>AVERAGE(B105:M105)</f>
+        <f t="shared" si="1"/>
         <v>7.708333333333333</v>
       </c>
     </row>
@@ -8375,7 +8391,7 @@
         <v>-0.4</v>
       </c>
       <c r="N106">
-        <f>AVERAGE(B106:M106)</f>
+        <f t="shared" si="1"/>
         <v>7.7166666666666659</v>
       </c>
     </row>
@@ -8420,7 +8436,7 @@
         <v>-1.6</v>
       </c>
       <c r="N107">
-        <f>AVERAGE(B107:M107)</f>
+        <f t="shared" si="1"/>
         <v>7.7250000000000005</v>
       </c>
     </row>
@@ -8465,7 +8481,7 @@
         <v>-3.1</v>
       </c>
       <c r="N108">
-        <f>AVERAGE(B108:M108)</f>
+        <f t="shared" si="1"/>
         <v>7.7250000000000005</v>
       </c>
     </row>
@@ -8510,7 +8526,7 @@
         <v>-1.3</v>
       </c>
       <c r="N109">
-        <f>AVERAGE(B109:M109)</f>
+        <f t="shared" si="1"/>
         <v>7.7250000000000005</v>
       </c>
     </row>
@@ -8555,7 +8571,7 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <f>AVERAGE(B110:M110)</f>
+        <f t="shared" si="1"/>
         <v>7.7333333333333316</v>
       </c>
     </row>
@@ -8600,7 +8616,7 @@
         <v>-0.6</v>
       </c>
       <c r="N111">
-        <f>AVERAGE(B111:M111)</f>
+        <f t="shared" si="1"/>
         <v>7.7666666666666666</v>
       </c>
     </row>
@@ -8645,7 +8661,7 @@
         <v>-0.8</v>
       </c>
       <c r="N112">
-        <f>AVERAGE(B112:M112)</f>
+        <f t="shared" si="1"/>
         <v>7.791666666666667</v>
       </c>
     </row>
@@ -8690,7 +8706,7 @@
         <v>1.4</v>
       </c>
       <c r="N113">
-        <f>AVERAGE(B113:M113)</f>
+        <f t="shared" si="1"/>
         <v>7.8000000000000016</v>
       </c>
     </row>
@@ -8735,7 +8751,7 @@
         <v>-2.4</v>
       </c>
       <c r="N114">
-        <f>AVERAGE(B114:M114)</f>
+        <f t="shared" si="1"/>
         <v>7.8083333333333309</v>
       </c>
     </row>
@@ -8780,7 +8796,7 @@
         <v>-0.6</v>
       </c>
       <c r="N115">
-        <f>AVERAGE(B115:M115)</f>
+        <f t="shared" si="1"/>
         <v>7.8083333333333336</v>
       </c>
     </row>
@@ -8825,7 +8841,7 @@
         <v>-1.6</v>
       </c>
       <c r="N116">
-        <f>AVERAGE(B116:M116)</f>
+        <f t="shared" si="1"/>
         <v>7.8083333333333336</v>
       </c>
     </row>
@@ -8870,7 +8886,7 @@
         <v>0.6</v>
       </c>
       <c r="N117">
-        <f>AVERAGE(B117:M117)</f>
+        <f t="shared" si="1"/>
         <v>7.8249999999999993</v>
       </c>
     </row>
@@ -8915,7 +8931,7 @@
         <v>-0.6</v>
       </c>
       <c r="N118">
-        <f>AVERAGE(B118:M118)</f>
+        <f t="shared" si="1"/>
         <v>7.8333333333333357</v>
       </c>
     </row>
@@ -8960,7 +8976,7 @@
         <v>-1.3</v>
       </c>
       <c r="N119">
-        <f>AVERAGE(B119:M119)</f>
+        <f t="shared" si="1"/>
         <v>7.8500000000000005</v>
       </c>
     </row>
@@ -9005,7 +9021,7 @@
         <v>-2.7</v>
       </c>
       <c r="N120">
-        <f>AVERAGE(B120:M120)</f>
+        <f t="shared" si="1"/>
         <v>7.8583333333333343</v>
       </c>
     </row>
@@ -9050,7 +9066,7 @@
         <v>2.1</v>
       </c>
       <c r="N121">
-        <f>AVERAGE(B121:M121)</f>
+        <f t="shared" si="1"/>
         <v>7.8666666666666663</v>
       </c>
     </row>
@@ -9095,7 +9111,7 @@
         <v>2</v>
       </c>
       <c r="N122">
-        <f>AVERAGE(B122:M122)</f>
+        <f t="shared" si="1"/>
         <v>7.9083333333333314</v>
       </c>
     </row>
@@ -9140,7 +9156,7 @@
         <v>0.9</v>
       </c>
       <c r="N123">
-        <f>AVERAGE(B123:M123)</f>
+        <f t="shared" si="1"/>
         <v>7.9250000000000007</v>
       </c>
     </row>
@@ -9185,7 +9201,7 @@
         <v>0.1</v>
       </c>
       <c r="N124">
-        <f>AVERAGE(B124:M124)</f>
+        <f t="shared" si="1"/>
         <v>7.9333333333333327</v>
       </c>
     </row>
@@ -9230,7 +9246,7 @@
         <v>-1.3</v>
       </c>
       <c r="N125">
-        <f>AVERAGE(B125:M125)</f>
+        <f t="shared" si="1"/>
         <v>7.9333333333333345</v>
       </c>
     </row>
@@ -9275,7 +9291,7 @@
         <v>0.3</v>
       </c>
       <c r="N126">
-        <f>AVERAGE(B126:M126)</f>
+        <f t="shared" si="1"/>
         <v>7.9749999999999988</v>
       </c>
     </row>
@@ -9320,7 +9336,7 @@
         <v>0.1</v>
       </c>
       <c r="N127">
-        <f>AVERAGE(B127:M127)</f>
+        <f t="shared" si="1"/>
         <v>7.9750000000000005</v>
       </c>
     </row>
@@ -9365,7 +9381,7 @@
         <v>-3.8</v>
       </c>
       <c r="N128">
-        <f>AVERAGE(B128:M128)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -9410,7 +9426,7 @@
         <v>1.4</v>
       </c>
       <c r="N129">
-        <f>AVERAGE(B129:M129)</f>
+        <f t="shared" si="1"/>
         <v>8.0250000000000004</v>
       </c>
     </row>
@@ -9455,7 +9471,7 @@
         <v>1.8</v>
       </c>
       <c r="N130">
-        <f>AVERAGE(B130:M130)</f>
+        <f t="shared" ref="N130:N193" si="2">AVERAGE(B130:M130)</f>
         <v>8.0333333333333332</v>
       </c>
     </row>
@@ -9500,7 +9516,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <f>AVERAGE(B131:M131)</f>
+        <f t="shared" si="2"/>
         <v>8.0333333333333332</v>
       </c>
     </row>
@@ -9545,7 +9561,7 @@
         <v>1.2</v>
       </c>
       <c r="N132">
-        <f>AVERAGE(B132:M132)</f>
+        <f t="shared" si="2"/>
         <v>8.0416666666666679</v>
       </c>
     </row>
@@ -9590,7 +9606,7 @@
         <v>-0.8</v>
       </c>
       <c r="N133">
-        <f>AVERAGE(B133:M133)</f>
+        <f t="shared" si="2"/>
         <v>8.0583333333333336</v>
       </c>
     </row>
@@ -9635,7 +9651,7 @@
         <v>1.3</v>
       </c>
       <c r="N134">
-        <f>AVERAGE(B134:M134)</f>
+        <f t="shared" si="2"/>
         <v>8.0666666666666664</v>
       </c>
     </row>
@@ -9680,7 +9696,7 @@
         <v>1</v>
       </c>
       <c r="N135">
-        <f>AVERAGE(B135:M135)</f>
+        <f t="shared" si="2"/>
         <v>8.0749999999999993</v>
       </c>
     </row>
@@ -9725,7 +9741,7 @@
         <v>-3.3</v>
       </c>
       <c r="N136">
-        <f>AVERAGE(B136:M136)</f>
+        <f t="shared" si="2"/>
         <v>8.0750000000000011</v>
       </c>
     </row>
@@ -9770,7 +9786,7 @@
         <v>-1.7</v>
       </c>
       <c r="N137">
-        <f>AVERAGE(B137:M137)</f>
+        <f t="shared" si="2"/>
         <v>8.0833333333333339</v>
       </c>
     </row>
@@ -9815,7 +9831,7 @@
         <v>-3.9</v>
       </c>
       <c r="N138">
-        <f>AVERAGE(B138:M138)</f>
+        <f t="shared" si="2"/>
         <v>8.0916666666666668</v>
       </c>
     </row>
@@ -9860,7 +9876,7 @@
         <v>-8.5</v>
       </c>
       <c r="N139">
-        <f>AVERAGE(B139:M139)</f>
+        <f t="shared" si="2"/>
         <v>8.1166666666666654</v>
       </c>
     </row>
@@ -9905,7 +9921,7 @@
         <v>-0.3</v>
       </c>
       <c r="N140">
-        <f>AVERAGE(B140:M140)</f>
+        <f t="shared" si="2"/>
         <v>8.1416666666666675</v>
       </c>
     </row>
@@ -9950,7 +9966,7 @@
         <v>-1.6</v>
       </c>
       <c r="N141">
-        <f>AVERAGE(B141:M141)</f>
+        <f t="shared" si="2"/>
         <v>8.15</v>
       </c>
     </row>
@@ -9995,7 +10011,7 @@
         <v>-1.9</v>
       </c>
       <c r="N142">
-        <f>AVERAGE(B142:M142)</f>
+        <f t="shared" si="2"/>
         <v>8.1583333333333332</v>
       </c>
     </row>
@@ -10040,7 +10056,7 @@
         <v>0.1</v>
       </c>
       <c r="N143">
-        <f>AVERAGE(B143:M143)</f>
+        <f t="shared" si="2"/>
         <v>8.1666666666666661</v>
       </c>
     </row>
@@ -10085,7 +10101,7 @@
         <v>2.5</v>
       </c>
       <c r="N144">
-        <f>AVERAGE(B144:M144)</f>
+        <f t="shared" si="2"/>
         <v>8.1749999999999989</v>
       </c>
     </row>
@@ -10130,7 +10146,7 @@
         <v>2.8</v>
       </c>
       <c r="N145">
-        <f>AVERAGE(B145:M145)</f>
+        <f t="shared" si="2"/>
         <v>8.1750000000000007</v>
       </c>
     </row>
@@ -10175,7 +10191,7 @@
         <v>2.9</v>
       </c>
       <c r="N146">
-        <f>AVERAGE(B146:M146)</f>
+        <f t="shared" si="2"/>
         <v>8.1833333333333336</v>
       </c>
     </row>
@@ -10220,7 +10236,7 @@
         <v>-0.5</v>
       </c>
       <c r="N147">
-        <f>AVERAGE(B147:M147)</f>
+        <f t="shared" si="2"/>
         <v>8.1916666666666664</v>
       </c>
     </row>
@@ -10265,7 +10281,7 @@
         <v>0.9</v>
       </c>
       <c r="N148">
-        <f>AVERAGE(B148:M148)</f>
+        <f t="shared" si="2"/>
         <v>8.1916666666666682</v>
       </c>
     </row>
@@ -10310,7 +10326,7 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="N149">
-        <f>AVERAGE(B149:M149)</f>
+        <f t="shared" si="2"/>
         <v>8.2000000000000011</v>
       </c>
     </row>
@@ -10355,7 +10371,7 @@
         <v>-1</v>
       </c>
       <c r="N150">
-        <f>AVERAGE(B150:M150)</f>
+        <f t="shared" si="2"/>
         <v>8.2083333333333339</v>
       </c>
     </row>
@@ -10400,7 +10416,7 @@
         <v>-6.1</v>
       </c>
       <c r="N151">
-        <f>AVERAGE(B151:M151)</f>
+        <f t="shared" si="2"/>
         <v>8.2166666666666668</v>
       </c>
     </row>
@@ -10445,7 +10461,7 @@
         <v>0.9</v>
       </c>
       <c r="N152">
-        <f>AVERAGE(B152:M152)</f>
+        <f t="shared" si="2"/>
         <v>8.2416666666666689</v>
       </c>
     </row>
@@ -10490,7 +10506,7 @@
         <v>0.8</v>
       </c>
       <c r="N153">
-        <f>AVERAGE(B153:M153)</f>
+        <f t="shared" si="2"/>
         <v>8.25</v>
       </c>
     </row>
@@ -10535,7 +10551,7 @@
         <v>-1.2</v>
       </c>
       <c r="N154">
-        <f>AVERAGE(B154:M154)</f>
+        <f t="shared" si="2"/>
         <v>8.2666666666666675</v>
       </c>
     </row>
@@ -10580,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="N155">
-        <f>AVERAGE(B155:M155)</f>
+        <f t="shared" si="2"/>
         <v>8.2833333333333332</v>
       </c>
     </row>
@@ -10625,7 +10641,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N156">
-        <f>AVERAGE(B156:M156)</f>
+        <f t="shared" si="2"/>
         <v>8.2833333333333332</v>
       </c>
     </row>
@@ -10670,7 +10686,7 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="N157">
-        <f>AVERAGE(B157:M157)</f>
+        <f t="shared" si="2"/>
         <v>8.2833333333333332</v>
       </c>
     </row>
@@ -10715,7 +10731,7 @@
         <v>-3.5</v>
       </c>
       <c r="N158">
-        <f>AVERAGE(B158:M158)</f>
+        <f t="shared" si="2"/>
         <v>8.2999999999999989</v>
       </c>
     </row>
@@ -10760,7 +10776,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N159">
-        <f>AVERAGE(B159:M159)</f>
+        <f t="shared" si="2"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10805,7 +10821,7 @@
         <v>-2.8</v>
       </c>
       <c r="N160">
-        <f>AVERAGE(B160:M160)</f>
+        <f t="shared" si="2"/>
         <v>8.3083333333333318</v>
       </c>
     </row>
@@ -10850,7 +10866,7 @@
         <v>-7.8</v>
       </c>
       <c r="N161">
-        <f>AVERAGE(B161:M161)</f>
+        <f t="shared" si="2"/>
         <v>8.3083333333333336</v>
       </c>
     </row>
@@ -10895,7 +10911,7 @@
         <v>0.6</v>
       </c>
       <c r="N162">
-        <f>AVERAGE(B162:M162)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333321</v>
       </c>
     </row>
@@ -10940,7 +10956,7 @@
         <v>1.3</v>
       </c>
       <c r="N163">
-        <f>AVERAGE(B163:M163)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -10985,7 +11001,7 @@
         <v>-4.2</v>
       </c>
       <c r="N164">
-        <f>AVERAGE(B164:M164)</f>
+        <f t="shared" si="2"/>
         <v>8.3333333333333339</v>
       </c>
     </row>
@@ -11030,7 +11046,7 @@
         <v>-1.5</v>
       </c>
       <c r="N165">
-        <f>AVERAGE(B165:M165)</f>
+        <f t="shared" si="2"/>
         <v>8.35</v>
       </c>
     </row>
@@ -11075,7 +11091,7 @@
         <v>2</v>
       </c>
       <c r="N166">
-        <f>AVERAGE(B166:M166)</f>
+        <f t="shared" si="2"/>
         <v>8.3583333333333325</v>
       </c>
     </row>
@@ -11120,7 +11136,7 @@
         <v>-0.6</v>
       </c>
       <c r="N167">
-        <f>AVERAGE(B167:M167)</f>
+        <f t="shared" si="2"/>
         <v>8.375</v>
       </c>
     </row>
@@ -11165,7 +11181,7 @@
         <v>-0.6</v>
       </c>
       <c r="N168">
-        <f>AVERAGE(B168:M168)</f>
+        <f t="shared" si="2"/>
         <v>8.3750000000000018</v>
       </c>
     </row>
@@ -11210,7 +11226,7 @@
         <v>2.4</v>
       </c>
       <c r="N169">
-        <f>AVERAGE(B169:M169)</f>
+        <f t="shared" si="2"/>
         <v>8.3833333333333346</v>
       </c>
     </row>
@@ -11255,7 +11271,7 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="N170">
-        <f>AVERAGE(B170:M170)</f>
+        <f t="shared" si="2"/>
         <v>8.3833333333333346</v>
       </c>
     </row>
@@ -11300,7 +11316,7 @@
         <v>-1.8</v>
       </c>
       <c r="N171">
-        <f>AVERAGE(B171:M171)</f>
+        <f t="shared" si="2"/>
         <v>8.3833333333333346</v>
       </c>
     </row>
@@ -11345,7 +11361,7 @@
         <v>-0.6</v>
       </c>
       <c r="N172">
-        <f>AVERAGE(B172:M172)</f>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
     </row>
@@ -11390,7 +11406,7 @@
         <v>1.8</v>
       </c>
       <c r="N173">
-        <f>AVERAGE(B173:M173)</f>
+        <f t="shared" si="2"/>
         <v>8.4</v>
       </c>
     </row>
@@ -11435,7 +11451,7 @@
         <v>-1.9</v>
       </c>
       <c r="N174">
-        <f>AVERAGE(B174:M174)</f>
+        <f t="shared" si="2"/>
         <v>8.4249999999999989</v>
       </c>
     </row>
@@ -11480,7 +11496,7 @@
         <v>2.4</v>
       </c>
       <c r="N175">
-        <f>AVERAGE(B175:M175)</f>
+        <f t="shared" si="2"/>
         <v>8.4500000000000011</v>
       </c>
     </row>
@@ -11525,7 +11541,7 @@
         <v>0.4</v>
       </c>
       <c r="N176">
-        <f>AVERAGE(B176:M176)</f>
+        <f t="shared" si="2"/>
         <v>8.4500000000000011</v>
       </c>
     </row>
@@ -11570,7 +11586,7 @@
         <v>-4.3</v>
       </c>
       <c r="N177">
-        <f>AVERAGE(B177:M177)</f>
+        <f t="shared" si="2"/>
         <v>8.4916666666666654</v>
       </c>
     </row>
@@ -11615,7 +11631,7 @@
         <v>-1.2</v>
       </c>
       <c r="N178">
-        <f>AVERAGE(B178:M178)</f>
+        <f t="shared" si="2"/>
         <v>8.5083333333333329</v>
       </c>
     </row>
@@ -11660,7 +11676,7 @@
         <v>2.6</v>
       </c>
       <c r="N179">
-        <f>AVERAGE(B179:M179)</f>
+        <f t="shared" si="2"/>
         <v>8.5083333333333346</v>
       </c>
     </row>
@@ -11705,7 +11721,7 @@
         <v>-5.2</v>
       </c>
       <c r="N180">
-        <f>AVERAGE(B180:M180)</f>
+        <f t="shared" si="2"/>
         <v>8.5250000000000004</v>
       </c>
     </row>
@@ -11750,7 +11766,7 @@
         <v>-1.3</v>
       </c>
       <c r="N181">
-        <f>AVERAGE(B181:M181)</f>
+        <f t="shared" si="2"/>
         <v>8.5333333333333332</v>
       </c>
     </row>
@@ -11795,7 +11811,7 @@
         <v>-1.2</v>
       </c>
       <c r="N182">
-        <f>AVERAGE(B182:M182)</f>
+        <f t="shared" si="2"/>
         <v>8.5499999999999989</v>
       </c>
     </row>
@@ -11840,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="N183">
-        <f>AVERAGE(B183:M183)</f>
+        <f t="shared" si="2"/>
         <v>8.5499999999999989</v>
       </c>
     </row>
@@ -11885,7 +11901,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="N184">
-        <f>AVERAGE(B184:M184)</f>
+        <f t="shared" si="2"/>
         <v>8.5583333333333353</v>
       </c>
     </row>
@@ -11930,7 +11946,7 @@
         <v>-2.1</v>
       </c>
       <c r="N185">
-        <f>AVERAGE(B185:M185)</f>
+        <f t="shared" si="2"/>
         <v>8.5583333333333353</v>
       </c>
     </row>
@@ -11975,7 +11991,7 @@
         <v>0.7</v>
       </c>
       <c r="N186">
-        <f>AVERAGE(B186:M186)</f>
+        <f t="shared" si="2"/>
         <v>8.5666666666666682</v>
       </c>
     </row>
@@ -12020,7 +12036,7 @@
         <v>-0.3</v>
       </c>
       <c r="N187">
-        <f>AVERAGE(B187:M187)</f>
+        <f t="shared" si="2"/>
         <v>8.5666666666666682</v>
       </c>
     </row>
@@ -12065,7 +12081,7 @@
         <v>-0.8</v>
       </c>
       <c r="N188">
-        <f>AVERAGE(B188:M188)</f>
+        <f t="shared" si="2"/>
         <v>8.5833333333333339</v>
       </c>
     </row>
@@ -12110,7 +12126,7 @@
         <v>0.9</v>
       </c>
       <c r="N189">
-        <f>AVERAGE(B189:M189)</f>
+        <f t="shared" si="2"/>
         <v>8.5916666666666668</v>
       </c>
     </row>
@@ -12155,7 +12171,7 @@
         <v>-3.6</v>
       </c>
       <c r="N190">
-        <f>AVERAGE(B190:M190)</f>
+        <f t="shared" si="2"/>
         <v>8.6000000000000014</v>
       </c>
     </row>
@@ -12200,7 +12216,7 @@
         <v>0.3</v>
       </c>
       <c r="N191">
-        <f>AVERAGE(B191:M191)</f>
+        <f t="shared" si="2"/>
         <v>8.6083333333333325</v>
       </c>
     </row>
@@ -12245,7 +12261,7 @@
         <v>-0.2</v>
       </c>
       <c r="N192">
-        <f>AVERAGE(B192:M192)</f>
+        <f t="shared" si="2"/>
         <v>8.625</v>
       </c>
     </row>
@@ -12290,7 +12306,7 @@
         <v>0.4</v>
       </c>
       <c r="N193">
-        <f>AVERAGE(B193:M193)</f>
+        <f t="shared" si="2"/>
         <v>8.625</v>
       </c>
     </row>
@@ -12335,7 +12351,7 @@
         <v>3.2</v>
       </c>
       <c r="N194">
-        <f>AVERAGE(B194:M194)</f>
+        <f t="shared" ref="N194:N257" si="3">AVERAGE(B194:M194)</f>
         <v>8.625</v>
       </c>
     </row>
@@ -12380,7 +12396,7 @@
         <v>-0.8</v>
       </c>
       <c r="N195">
-        <f>AVERAGE(B195:M195)</f>
+        <f t="shared" si="3"/>
         <v>8.6833333333333336</v>
       </c>
     </row>
@@ -12425,7 +12441,7 @@
         <v>-2.8</v>
       </c>
       <c r="N196">
-        <f>AVERAGE(B196:M196)</f>
+        <f t="shared" si="3"/>
         <v>8.6916666666666664</v>
       </c>
     </row>
@@ -12470,7 +12486,7 @@
         <v>-0.4</v>
       </c>
       <c r="N197">
-        <f>AVERAGE(B197:M197)</f>
+        <f t="shared" si="3"/>
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -12515,7 +12531,7 @@
         <v>0.2</v>
       </c>
       <c r="N198">
-        <f>AVERAGE(B198:M198)</f>
+        <f t="shared" si="3"/>
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -12560,7 +12576,7 @@
         <v>0.8</v>
       </c>
       <c r="N199">
-        <f>AVERAGE(B199:M199)</f>
+        <f t="shared" si="3"/>
         <v>8.7083333333333339</v>
       </c>
     </row>
@@ -12605,7 +12621,7 @@
         <v>-4.8</v>
       </c>
       <c r="N200">
-        <f>AVERAGE(B200:M200)</f>
+        <f t="shared" si="3"/>
         <v>8.7083333333333339</v>
       </c>
     </row>
@@ -12650,7 +12666,7 @@
         <v>-0.7</v>
       </c>
       <c r="N201">
-        <f>AVERAGE(B201:M201)</f>
+        <f t="shared" si="3"/>
         <v>8.7249999999999996</v>
       </c>
     </row>
@@ -12695,7 +12711,7 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="N202">
-        <f>AVERAGE(B202:M202)</f>
+        <f t="shared" si="3"/>
         <v>8.7416666666666654</v>
       </c>
     </row>
@@ -12740,7 +12756,7 @@
         <v>-1.4</v>
       </c>
       <c r="N203">
-        <f>AVERAGE(B203:M203)</f>
+        <f t="shared" si="3"/>
         <v>8.7499999999999982</v>
       </c>
     </row>
@@ -12785,7 +12801,7 @@
         <v>2.4</v>
       </c>
       <c r="N204">
-        <f>AVERAGE(B204:M204)</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -12830,7 +12846,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N205">
-        <f>AVERAGE(B205:M205)</f>
+        <f t="shared" si="3"/>
         <v>8.7666666666666657</v>
       </c>
     </row>
@@ -12875,7 +12891,7 @@
         <v>-1.7</v>
       </c>
       <c r="N206">
-        <f>AVERAGE(B206:M206)</f>
+        <f t="shared" si="3"/>
         <v>8.7833333333333314</v>
       </c>
     </row>
@@ -12920,7 +12936,7 @@
         <v>-1.8</v>
       </c>
       <c r="N207">
-        <f>AVERAGE(B207:M207)</f>
+        <f t="shared" si="3"/>
         <v>8.8000000000000007</v>
       </c>
     </row>
@@ -12965,7 +12981,7 @@
         <v>-3.1</v>
       </c>
       <c r="N208">
-        <f>AVERAGE(B208:M208)</f>
+        <f t="shared" si="3"/>
         <v>8.8250000000000011</v>
       </c>
     </row>
@@ -13010,7 +13026,7 @@
         <v>1.5</v>
       </c>
       <c r="N209">
-        <f>AVERAGE(B209:M209)</f>
+        <f t="shared" si="3"/>
         <v>8.8833333333333329</v>
       </c>
     </row>
@@ -13055,7 +13071,7 @@
         <v>-2.6</v>
       </c>
       <c r="N210">
-        <f>AVERAGE(B210:M210)</f>
+        <f t="shared" si="3"/>
         <v>8.9249999999999989</v>
       </c>
     </row>
@@ -13100,7 +13116,7 @@
         <v>3.9</v>
       </c>
       <c r="N211">
-        <f>AVERAGE(B211:M211)</f>
+        <f t="shared" si="3"/>
         <v>8.9583333333333339</v>
       </c>
     </row>
@@ -13145,7 +13161,7 @@
         <v>2.5</v>
       </c>
       <c r="N212">
-        <f>AVERAGE(B212:M212)</f>
+        <f t="shared" si="3"/>
         <v>8.9666666666666668</v>
       </c>
     </row>
@@ -13190,7 +13206,7 @@
         <v>-0.4</v>
       </c>
       <c r="N213">
-        <f>AVERAGE(B213:M213)</f>
+        <f t="shared" si="3"/>
         <v>8.9749999999999996</v>
       </c>
     </row>
@@ -13235,7 +13251,7 @@
         <v>2.1</v>
       </c>
       <c r="N214">
-        <f>AVERAGE(B214:M214)</f>
+        <f t="shared" si="3"/>
         <v>8.9999999999999982</v>
       </c>
     </row>
@@ -13280,7 +13296,7 @@
         <v>-0.5</v>
       </c>
       <c r="N215">
-        <f>AVERAGE(B215:M215)</f>
+        <f t="shared" si="3"/>
         <v>9.0916666666666668</v>
       </c>
     </row>
@@ -13325,7 +13341,7 @@
         <v>1.4</v>
       </c>
       <c r="N216">
-        <f>AVERAGE(B216:M216)</f>
+        <f t="shared" si="3"/>
         <v>9.1083333333333325</v>
       </c>
     </row>
@@ -13370,7 +13386,7 @@
         <v>-3</v>
       </c>
       <c r="N217">
-        <f>AVERAGE(B217:M217)</f>
+        <f t="shared" si="3"/>
         <v>9.1583333333333332</v>
       </c>
     </row>
@@ -13415,7 +13431,7 @@
         <v>0.7</v>
       </c>
       <c r="N218">
-        <f>AVERAGE(B218:M218)</f>
+        <f t="shared" si="3"/>
         <v>9.1666666666666679</v>
       </c>
     </row>
@@ -13460,7 +13476,7 @@
         <v>-1</v>
       </c>
       <c r="N219">
-        <f>AVERAGE(B219:M219)</f>
+        <f t="shared" si="3"/>
         <v>9.2333333333333325</v>
       </c>
     </row>
@@ -13505,7 +13521,7 @@
         <v>0.9</v>
       </c>
       <c r="N220">
-        <f>AVERAGE(B220:M220)</f>
+        <f t="shared" si="3"/>
         <v>9.2999999999999989</v>
       </c>
     </row>
@@ -13550,7 +13566,7 @@
         <v>-6.6</v>
       </c>
       <c r="N221">
-        <f>AVERAGE(B221:M221)</f>
+        <f t="shared" si="3"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -13595,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <f>AVERAGE(B222:M222)</f>
+        <f t="shared" si="3"/>
         <v>9.3583333333333325</v>
       </c>
     </row>
@@ -13640,7 +13656,7 @@
         <v>-0.6</v>
       </c>
       <c r="N223">
-        <f>AVERAGE(B223:M223)</f>
+        <f t="shared" si="3"/>
         <v>9.4583333333333339</v>
       </c>
     </row>
@@ -13685,7 +13701,7 @@
         <v>1.2</v>
       </c>
       <c r="N224">
-        <f>AVERAGE(B224:M224)</f>
+        <f t="shared" si="3"/>
         <v>9.4833333333333325</v>
       </c>
     </row>
@@ -13730,7 +13746,7 @@
         <v>-0.3</v>
       </c>
       <c r="N225">
-        <f>AVERAGE(B225:M225)</f>
+        <f t="shared" si="3"/>
         <v>9.5583333333333318</v>
       </c>
     </row>
@@ -13775,7 +13791,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N226">
-        <f>AVERAGE(B226:M226)</f>
+        <f t="shared" si="3"/>
         <v>9.6083333333333325</v>
       </c>
     </row>
@@ -13820,7 +13836,7 @@
         <v>-0.3</v>
       </c>
       <c r="N227">
-        <f>AVERAGE(B227:M227)</f>
+        <f t="shared" si="3"/>
         <v>9.6166666666666689</v>
       </c>
     </row>
@@ -13865,7 +13881,7 @@
         <v>0.1</v>
       </c>
       <c r="N228">
-        <f>AVERAGE(B228:M228)</f>
+        <f t="shared" si="3"/>
         <v>9.7166666666666668</v>
       </c>
     </row>
@@ -13910,7 +13926,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N229" s="2">
-        <f>AVERAGE(B229:M229)</f>
+        <f t="shared" si="3"/>
         <v>9.8166666666666664</v>
       </c>
     </row>
@@ -13925,15 +13941,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R431"/>
+  <dimension ref="A1:AA431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="5" bestFit="1" customWidth="1"/>
@@ -13941,9 +13957,11 @@
     <col min="13" max="13" width="5.7109375" customWidth="1"/>
     <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13992,8 +14010,21 @@
       <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="T1">
+        <f>MIN(N:N)</f>
+        <v>4.7416666666666663</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1779</v>
       </c>
@@ -14043,8 +14074,22 @@
       <c r="R2" s="4">
         <v>4.7416666666666663</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="V2">
+        <v>19.5</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f>IF(W2=1, X1+W2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>MAX(X:X)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>1780</v>
       </c>
@@ -14094,8 +14139,19 @@
       <c r="R3" s="5">
         <v>1829</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="V3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W3">
+        <f>IF(V3&lt; V2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="1">IF(W3=1, X2+W3, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>1781</v>
       </c>
@@ -14145,8 +14201,19 @@
       <c r="R4" s="4">
         <v>5.208333333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="V4">
+        <v>22.8</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W67" si="2">IF(V4&lt; V3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>1782</v>
       </c>
@@ -14196,8 +14263,19 @@
       <c r="R5" s="5">
         <v>1799</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="V5">
+        <v>18.3</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>1783</v>
       </c>
@@ -14247,8 +14325,19 @@
       <c r="R6" s="4">
         <v>5.2833333333333341</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="V6">
+        <v>20.2</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>1784</v>
       </c>
@@ -14298,8 +14387,19 @@
       <c r="R7" s="5">
         <v>1785</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="V7">
+        <v>22.5</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>1785</v>
       </c>
@@ -14349,8 +14449,19 @@
       <c r="R8" s="4">
         <v>5.3166666666666664</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="V8">
+        <v>16.7</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>1786</v>
       </c>
@@ -14400,8 +14511,19 @@
       <c r="R9" s="5">
         <v>1805</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="V9">
+        <v>15.9</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>1787</v>
       </c>
@@ -14451,8 +14573,19 @@
       <c r="R10" s="4">
         <v>5.3666666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="V10">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>1788</v>
       </c>
@@ -14502,8 +14635,19 @@
       <c r="R11" s="5">
         <v>1871</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="V11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>1789</v>
       </c>
@@ -14553,8 +14697,19 @@
       <c r="R12" s="4">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="V12">
+        <v>20</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>1790</v>
       </c>
@@ -14604,8 +14759,19 @@
       <c r="R13" s="5">
         <v>1838</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="V13">
+        <v>17.2</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>1791</v>
       </c>
@@ -14655,8 +14821,19 @@
       <c r="R14" s="4">
         <v>5.7500000000000009</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="V14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>1792</v>
       </c>
@@ -14706,8 +14883,19 @@
       <c r="R15" s="5">
         <v>1803</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="V15">
+        <v>18.3</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>1793</v>
       </c>
@@ -14757,8 +14945,19 @@
       <c r="R16" s="4">
         <v>5.791666666666667</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="V16">
+        <v>18.7</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>1794</v>
       </c>
@@ -14808,8 +15007,19 @@
       <c r="R17" s="5">
         <v>1855</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="V17">
+        <v>17</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>1795</v>
       </c>
@@ -14859,8 +15069,19 @@
       <c r="R18" s="4">
         <v>5.8166666666666664</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="V18">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>1796</v>
       </c>
@@ -14910,8 +15131,19 @@
       <c r="R19" s="5">
         <v>1870</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="V19">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>1797</v>
       </c>
@@ -14961,8 +15193,19 @@
       <c r="R20" s="4">
         <v>5.8249999999999993</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="V20">
+        <v>19.8</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>1798</v>
       </c>
@@ -15012,8 +15255,19 @@
       <c r="R21" s="5">
         <v>1786</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="V21">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>1799</v>
       </c>
@@ -15063,8 +15317,19 @@
       <c r="R22" s="5">
         <v>1812</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="V22">
+        <v>17.7</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>1800</v>
       </c>
@@ -15114,8 +15379,19 @@
       <c r="R23" s="4">
         <v>5.916666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="V23">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>1801</v>
       </c>
@@ -15165,8 +15441,19 @@
       <c r="R24" s="5">
         <v>1940</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="V24">
+        <v>15.9</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>1802</v>
       </c>
@@ -15216,8 +15503,19 @@
       <c r="R25" s="4">
         <v>5.9416666666666664</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="V25">
+        <v>19.5</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>1803</v>
       </c>
@@ -15267,8 +15565,19 @@
       <c r="R26" s="5">
         <v>1864</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="V26">
+        <v>18.5</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>1804</v>
       </c>
@@ -15318,8 +15627,19 @@
       <c r="R27" s="4">
         <v>6.1333333333333337</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="V27">
+        <v>16.5</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>1805</v>
       </c>
@@ -15369,8 +15689,19 @@
       <c r="R28" s="5">
         <v>1832</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="V28">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>1806</v>
       </c>
@@ -15420,8 +15751,19 @@
       <c r="R29" s="4">
         <v>6.1750000000000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="V29">
+        <v>18.3</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>1807</v>
       </c>
@@ -15471,8 +15813,19 @@
       <c r="R30" s="5">
         <v>1875</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="V30">
+        <v>23.8</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>1808</v>
       </c>
@@ -15522,8 +15875,19 @@
       <c r="R31" s="4">
         <v>6.1833333333333327</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="V31">
+        <v>20.5</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>1809</v>
       </c>
@@ -15573,8 +15937,19 @@
       <c r="R32" s="5">
         <v>1840</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="V32">
+        <v>19.7</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>1810</v>
       </c>
@@ -15624,8 +15999,19 @@
       <c r="R33" s="4">
         <v>6.1999999999999993</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="V33">
+        <v>17.5</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>1811</v>
       </c>
@@ -15675,8 +16061,19 @@
       <c r="R34" s="5">
         <v>1815</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="V34">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>1812</v>
       </c>
@@ -15726,8 +16123,19 @@
       <c r="R35" s="4">
         <v>6.2250000000000014</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="V35">
+        <v>17.7</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36">
         <v>1813</v>
       </c>
@@ -15777,8 +16185,19 @@
       <c r="R36" s="5">
         <v>1788</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="V36">
+        <v>16.7</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37">
         <v>1814</v>
       </c>
@@ -15828,8 +16247,19 @@
       <c r="R37" s="4">
         <v>6.366666666666668</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="V37">
+        <v>17.7</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38">
         <v>1815</v>
       </c>
@@ -15879,8 +16309,19 @@
       <c r="R38" s="5">
         <v>1956</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="V38">
+        <v>17</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39">
         <v>1816</v>
       </c>
@@ -15930,8 +16371,19 @@
       <c r="R39" s="4">
         <v>6.3916666666666657</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="V39">
+        <v>16.2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40">
         <v>1817</v>
       </c>
@@ -15981,8 +16433,19 @@
       <c r="R40" s="5">
         <v>1814</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="V40">
+        <v>18</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41">
         <v>1818</v>
       </c>
@@ -16032,8 +16495,19 @@
       <c r="R41" s="4">
         <v>6.4083333333333323</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="V41">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42">
         <v>1819</v>
       </c>
@@ -16083,8 +16557,19 @@
       <c r="R42" s="5">
         <v>1902</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="V42">
+        <v>18.7</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43">
         <v>1820</v>
       </c>
@@ -16134,8 +16619,19 @@
       <c r="R43" s="4">
         <v>6.416666666666667</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="V43">
+        <v>18.8</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44">
         <v>1821</v>
       </c>
@@ -16185,8 +16681,19 @@
       <c r="R44" s="5">
         <v>1844</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="V44">
+        <v>16.5</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45">
         <v>1822</v>
       </c>
@@ -16236,8 +16743,19 @@
       <c r="R45" s="5">
         <v>1881</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="V45">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46">
         <v>1823</v>
       </c>
@@ -16287,8 +16805,19 @@
       <c r="R46" s="4">
         <v>6.4166666666666679</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="V46">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47">
         <v>1824</v>
       </c>
@@ -16338,8 +16867,19 @@
       <c r="R47" s="5">
         <v>1941</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="V47">
+        <v>18.3</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48">
         <v>1825</v>
       </c>
@@ -16389,8 +16929,19 @@
       <c r="R48" s="4">
         <v>6.4833333333333334</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="V48">
+        <v>18.3</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49">
         <v>1826</v>
       </c>
@@ -16440,8 +16991,19 @@
       <c r="R49" s="5">
         <v>1804</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="V49">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50">
         <v>1827</v>
       </c>
@@ -16491,8 +17053,19 @@
       <c r="R50" s="4">
         <v>6.5166666666666666</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="V50">
+        <v>17</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51">
         <v>1828</v>
       </c>
@@ -16542,8 +17115,19 @@
       <c r="R51" s="5">
         <v>1849</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="V51">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52">
         <v>1829</v>
       </c>
@@ -16593,8 +17177,19 @@
       <c r="R52" s="4">
         <v>6.5416666666666652</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="V52">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53">
         <v>1830</v>
       </c>
@@ -16644,8 +17239,19 @@
       <c r="R53" s="5">
         <v>1888</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="V53">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54">
         <v>1831</v>
       </c>
@@ -16695,8 +17301,19 @@
       <c r="R54" s="4">
         <v>6.541666666666667</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="V54">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55">
         <v>1832</v>
       </c>
@@ -16746,8 +17363,19 @@
       <c r="R55" s="5">
         <v>1879</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="V55">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56">
         <v>1833</v>
       </c>
@@ -16797,8 +17425,19 @@
       <c r="R56" s="4">
         <v>6.5666666666666673</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="V56">
+        <v>14</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57">
         <v>1834</v>
       </c>
@@ -16848,8 +17487,19 @@
       <c r="R57" s="5">
         <v>1858</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="V57">
+        <v>20.3</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58">
         <v>1835</v>
       </c>
@@ -16899,8 +17549,19 @@
       <c r="R58" s="4">
         <v>6.6166666666666671</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="V58">
+        <v>15.2</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59">
         <v>1836</v>
       </c>
@@ -16950,8 +17611,19 @@
       <c r="R59" s="5">
         <v>1933</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="V59">
+        <v>15.9</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60">
         <v>1837</v>
       </c>
@@ -17001,8 +17673,19 @@
       <c r="R60" s="4">
         <v>6.6333333333333329</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="V60">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61">
         <v>1838</v>
       </c>
@@ -17052,8 +17735,19 @@
       <c r="R61" s="5">
         <v>1816</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="V61">
+        <v>15.5</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62">
         <v>1839</v>
       </c>
@@ -17103,8 +17797,19 @@
       <c r="R62" s="5">
         <v>1929</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="V62">
+        <v>18</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63">
         <v>1840</v>
       </c>
@@ -17154,8 +17859,19 @@
       <c r="R63" s="4">
         <v>6.6333333333333337</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="V63">
+        <v>16.7</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64">
         <v>1841</v>
       </c>
@@ -17205,8 +17921,19 @@
       <c r="R64" s="5">
         <v>1845</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="V64">
+        <v>19.3</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65">
         <v>1842</v>
       </c>
@@ -17256,8 +17983,19 @@
       <c r="R65" s="4">
         <v>6.6416666666666666</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="V65">
+        <v>20.5</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66">
         <v>1843</v>
       </c>
@@ -17307,8 +18045,19 @@
       <c r="R66" s="5">
         <v>1830</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="V66">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67">
         <v>1844</v>
       </c>
@@ -17349,7 +18098,7 @@
         <v>-6.2</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="1">AVERAGE(B67:M67)</f>
+        <f t="shared" ref="N67:N130" si="3">AVERAGE(B67:M67)</f>
         <v>6.416666666666667</v>
       </c>
       <c r="O67">
@@ -17358,8 +18107,19 @@
       <c r="R67" s="4">
         <v>6.6499999999999995</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="V67">
+        <v>16</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X130" si="4">IF(W67=1, X66+W67, 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68">
         <v>1845</v>
       </c>
@@ -17400,7 +18160,7 @@
         <v>-0.2</v>
       </c>
       <c r="N68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6333333333333337</v>
       </c>
       <c r="O68">
@@ -17409,8 +18169,19 @@
       <c r="R68" s="5">
         <v>1853</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="V68">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W68">
+        <f t="shared" ref="W68:W131" si="5">IF(V68&lt; V67, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69">
         <v>1846</v>
       </c>
@@ -17451,7 +18222,7 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="N69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2833333333333332</v>
       </c>
       <c r="O69">
@@ -17460,8 +18231,19 @@
       <c r="R69" s="4">
         <v>6.6999999999999993</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="V69">
+        <v>21.4</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70">
         <v>1847</v>
       </c>
@@ -17502,7 +18284,7 @@
         <v>-3.3</v>
       </c>
       <c r="N70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.7083333333333321</v>
       </c>
       <c r="O70">
@@ -17511,8 +18293,19 @@
       <c r="R70" s="5">
         <v>1808</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="V70">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71">
         <v>1848</v>
       </c>
@@ -17553,7 +18346,7 @@
         <v>0.3</v>
       </c>
       <c r="N71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9749999999999988</v>
       </c>
       <c r="O71">
@@ -17562,8 +18355,19 @@
       <c r="R71" s="4">
         <v>6.7083333333333321</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="V71">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72">
         <v>1849</v>
       </c>
@@ -17604,7 +18408,7 @@
         <v>-6.3</v>
       </c>
       <c r="N72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5166666666666666</v>
       </c>
       <c r="O72">
@@ -17613,8 +18417,19 @@
       <c r="R72" s="5">
         <v>1847</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="V72">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73">
         <v>1850</v>
       </c>
@@ -17655,7 +18470,7 @@
         <v>-0.3</v>
       </c>
       <c r="N73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.166666666666667</v>
       </c>
       <c r="O73">
@@ -17664,8 +18479,19 @@
       <c r="R73" s="4">
         <v>6.708333333333333</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="V73">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74">
         <v>1851</v>
       </c>
@@ -17706,7 +18532,7 @@
         <v>-0.4</v>
       </c>
       <c r="N74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.625</v>
       </c>
       <c r="O74">
@@ -17715,8 +18541,19 @@
       <c r="R74" s="5">
         <v>1867</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="V74">
+        <v>17.7</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75">
         <v>1852</v>
       </c>
@@ -17757,7 +18594,7 @@
         <v>2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9083333333333314</v>
       </c>
       <c r="O75">
@@ -17766,8 +18603,19 @@
       <c r="R75" s="4">
         <v>6.7833333333333341</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="V75">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76">
         <v>1853</v>
       </c>
@@ -17808,7 +18656,7 @@
         <v>-5.3</v>
       </c>
       <c r="N76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6499999999999995</v>
       </c>
       <c r="O76">
@@ -17817,8 +18665,19 @@
       <c r="R76" s="5">
         <v>1820</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="V76">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77">
         <v>1854</v>
       </c>
@@ -17859,7 +18718,7 @@
         <v>-0.1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4833333333333334</v>
       </c>
       <c r="O77">
@@ -17868,8 +18727,19 @@
       <c r="R77" s="4">
         <v>6.799999999999998</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="V77">
+        <v>17.5</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78">
         <v>1855</v>
       </c>
@@ -17910,7 +18780,7 @@
         <v>-9.3000000000000007</v>
       </c>
       <c r="N78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.791666666666667</v>
       </c>
       <c r="O78">
@@ -17919,8 +18789,19 @@
       <c r="R78" s="5">
         <v>1919</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="V78">
+        <v>17.8</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79">
         <v>1856</v>
       </c>
@@ -17961,7 +18842,7 @@
         <v>-0.7</v>
       </c>
       <c r="N79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1499999999999995</v>
       </c>
       <c r="O79">
@@ -17970,8 +18851,19 @@
       <c r="R79" s="4">
         <v>6.833333333333333</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="V79">
+        <v>15.9</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80">
         <v>1857</v>
       </c>
@@ -18012,7 +18904,7 @@
         <v>1.3</v>
       </c>
       <c r="N80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.583333333333333</v>
       </c>
       <c r="O80">
@@ -18021,8 +18913,19 @@
       <c r="R80" s="5">
         <v>1842</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="V80">
+        <v>18.5</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81">
         <v>1858</v>
       </c>
@@ -18063,7 +18966,7 @@
         <v>-3.3</v>
       </c>
       <c r="N81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5666666666666673</v>
       </c>
       <c r="O81">
@@ -18072,8 +18975,19 @@
       <c r="R81" s="4">
         <v>6.8666666666666671</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="V81">
+        <v>18.8</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82">
         <v>1859</v>
       </c>
@@ -18114,7 +19028,7 @@
         <v>-4.3</v>
       </c>
       <c r="N82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4916666666666654</v>
       </c>
       <c r="O82">
@@ -18123,8 +19037,19 @@
       <c r="R82" s="5">
         <v>1862</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="V82">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83">
         <v>1860</v>
       </c>
@@ -18165,7 +19090,7 @@
         <v>-4.3</v>
       </c>
       <c r="N83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1083333333333343</v>
       </c>
       <c r="O83">
@@ -18174,8 +19099,19 @@
       <c r="R83" s="4">
         <v>6.875</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="V83">
+        <v>17.5</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84">
         <v>1861</v>
       </c>
@@ -18216,7 +19152,7 @@
         <v>-1.8</v>
       </c>
       <c r="N84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6499999999999995</v>
       </c>
       <c r="O84">
@@ -18225,8 +19161,19 @@
       <c r="R84" s="5">
         <v>1907</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="V84">
+        <v>18</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85">
         <v>1862</v>
       </c>
@@ -18267,7 +19214,7 @@
         <v>-6.8</v>
       </c>
       <c r="N85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.8666666666666671</v>
       </c>
       <c r="O85">
@@ -18276,8 +19223,19 @@
       <c r="R85" s="4">
         <v>6.8916666666666666</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="V85">
+        <v>17.8</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86">
         <v>1863</v>
       </c>
@@ -18318,7 +19276,7 @@
         <v>-0.4</v>
       </c>
       <c r="N86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.9749999999999996</v>
       </c>
       <c r="O86">
@@ -18327,8 +19285,19 @@
       <c r="R86" s="5">
         <v>1987</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="V86">
+        <v>18.7</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87">
         <v>1864</v>
       </c>
@@ -18369,7 +19338,7 @@
         <v>-6.4</v>
       </c>
       <c r="N87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.9416666666666664</v>
       </c>
       <c r="O87">
@@ -18378,8 +19347,19 @@
       <c r="R87" s="4">
         <v>6.8916666666666684</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="V87">
+        <v>15.3</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88">
         <v>1865</v>
       </c>
@@ -18420,7 +19400,7 @@
         <v>-0.4</v>
       </c>
       <c r="N88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.166666666666667</v>
       </c>
       <c r="O88">
@@ -18429,8 +19409,19 @@
       <c r="R88" s="5">
         <v>1980</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="V88">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89">
         <v>1866</v>
       </c>
@@ -18471,7 +19462,7 @@
         <v>-1.2</v>
       </c>
       <c r="N89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2666666666666675</v>
       </c>
       <c r="O89">
@@ -18480,8 +19471,19 @@
       <c r="R89" s="4">
         <v>6.924999999999998</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="V89">
+        <v>16.7</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90">
         <v>1867</v>
       </c>
@@ -18522,7 +19524,7 @@
         <v>-4.2</v>
       </c>
       <c r="N90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.708333333333333</v>
       </c>
       <c r="O90">
@@ -18531,8 +19533,19 @@
       <c r="R90" s="5">
         <v>1837</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="V90">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91">
         <v>1868</v>
       </c>
@@ -18573,7 +19586,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.7666666666666657</v>
       </c>
       <c r="O91">
@@ -18582,8 +19595,19 @@
       <c r="R91" s="4">
         <v>6.9416666666666673</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="V91">
+        <v>19.8</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92">
         <v>1869</v>
       </c>
@@ -18624,7 +19648,7 @@
         <v>-0.8</v>
       </c>
       <c r="N92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0583333333333336</v>
       </c>
       <c r="O92">
@@ -18633,8 +19657,19 @@
       <c r="R92" s="5">
         <v>1810</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="V92">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93">
         <v>1870</v>
       </c>
@@ -18675,7 +19710,7 @@
         <v>-7.9</v>
       </c>
       <c r="N93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.8166666666666664</v>
       </c>
       <c r="O93">
@@ -18684,8 +19719,19 @@
       <c r="R93" s="4">
         <v>6.958333333333333</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="V93">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94">
         <v>1871</v>
       </c>
@@ -18726,7 +19772,7 @@
         <v>-5.7</v>
       </c>
       <c r="N94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3666666666666663</v>
       </c>
       <c r="O94">
@@ -18735,8 +19781,19 @@
       <c r="R94" s="5">
         <v>1924</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="V94">
+        <v>17.5</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95">
         <v>1872</v>
       </c>
@@ -18777,7 +19834,7 @@
         <v>-0.5</v>
       </c>
       <c r="N95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.0916666666666668</v>
       </c>
       <c r="O95">
@@ -18786,8 +19843,19 @@
       <c r="R95" s="4">
         <v>6.9749999999999988</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="V95">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96">
         <v>1873</v>
       </c>
@@ -18828,7 +19896,7 @@
         <v>0.8</v>
       </c>
       <c r="N96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
       <c r="O96">
@@ -18837,8 +19905,19 @@
       <c r="R96" s="5">
         <v>1942</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="V96">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97">
         <v>1874</v>
       </c>
@@ -18879,7 +19958,7 @@
         <v>-1.6</v>
       </c>
       <c r="N97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7250000000000005</v>
       </c>
       <c r="O97">
@@ -18888,8 +19967,19 @@
       <c r="R97" s="4">
         <v>6.991666666666668</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="V97">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98">
         <v>1875</v>
       </c>
@@ -18930,7 +20020,7 @@
         <v>-6.1</v>
       </c>
       <c r="N98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.1750000000000007</v>
       </c>
       <c r="O98">
@@ -18939,8 +20029,19 @@
       <c r="R98" s="5">
         <v>1876</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="V98">
+        <v>18.8</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99">
         <v>1876</v>
       </c>
@@ -18981,7 +20082,7 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="N99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.991666666666668</v>
       </c>
       <c r="O99">
@@ -18990,8 +20091,19 @@
       <c r="R99" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="V99">
+        <v>18.2</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100">
         <v>1877</v>
       </c>
@@ -19032,7 +20144,7 @@
         <v>-2.4</v>
       </c>
       <c r="N100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.258333333333332</v>
       </c>
       <c r="O100">
@@ -19041,8 +20153,19 @@
       <c r="R100" s="5">
         <v>1912</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="V100">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101">
         <v>1878</v>
       </c>
@@ -19083,7 +20206,7 @@
         <v>-1.6</v>
       </c>
       <c r="N101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.15</v>
       </c>
       <c r="O101">
@@ -19092,8 +20215,19 @@
       <c r="R101" s="4">
         <v>7.0666666666666664</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="V101">
+        <v>18.2</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102">
         <v>1879</v>
       </c>
@@ -19134,7 +20268,7 @@
         <v>-8.3000000000000007</v>
       </c>
       <c r="N102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.541666666666667</v>
       </c>
       <c r="O102">
@@ -19143,8 +20277,19 @@
       <c r="R102" s="5">
         <v>1828</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="V102">
+        <v>17.2</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103">
         <v>1880</v>
       </c>
@@ -19185,7 +20330,7 @@
         <v>-0.4</v>
       </c>
       <c r="N103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7166666666666659</v>
       </c>
       <c r="O103">
@@ -19194,8 +20339,19 @@
       <c r="R103" s="4">
         <v>7.0916666666666677</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="V103">
+        <v>17.8</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104">
         <v>1881</v>
       </c>
@@ -19236,7 +20392,7 @@
         <v>-1.3</v>
       </c>
       <c r="N104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.416666666666667</v>
       </c>
       <c r="O104">
@@ -19245,8 +20401,19 @@
       <c r="R104" s="5">
         <v>1893</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="V104">
+        <v>16.5</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105">
         <v>1882</v>
       </c>
@@ -19287,7 +20454,7 @@
         <v>-2.1</v>
       </c>
       <c r="N105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5583333333333353</v>
       </c>
       <c r="O105">
@@ -19296,8 +20463,19 @@
       <c r="R105" s="4">
         <v>7.1000000000000005</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="V105">
+        <v>16.7</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106">
         <v>1883</v>
       </c>
@@ -19338,7 +20516,7 @@
         <v>-0.8</v>
       </c>
       <c r="N106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2166666666666659</v>
       </c>
       <c r="O106">
@@ -19347,8 +20525,19 @@
       <c r="R106" s="5">
         <v>1809</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="V106">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107">
         <v>1884</v>
       </c>
@@ -19389,7 +20578,7 @@
         <v>1.4</v>
       </c>
       <c r="N107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0250000000000004</v>
       </c>
       <c r="O107">
@@ -19398,8 +20587,19 @@
       <c r="R107" s="4">
         <v>7.1083333333333343</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="V107">
+        <v>16.3</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108">
         <v>1885</v>
       </c>
@@ -19440,7 +20640,7 @@
         <v>-2</v>
       </c>
       <c r="N108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6833333333333345</v>
       </c>
       <c r="O108">
@@ -19449,8 +20649,19 @@
       <c r="R108" s="5">
         <v>1860</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="V108">
+        <v>15.3</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X108">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109">
         <v>1886</v>
       </c>
@@ -19491,7 +20702,7 @@
         <v>0.9</v>
       </c>
       <c r="N109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9250000000000007</v>
       </c>
       <c r="O109">
@@ -19500,8 +20711,19 @@
       <c r="R109" s="4">
         <v>7.1499999999999995</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="V109">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110">
         <v>1887</v>
       </c>
@@ -19542,7 +20764,7 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="N110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4916666666666671</v>
       </c>
       <c r="O110">
@@ -19551,8 +20773,19 @@
       <c r="R110" s="5">
         <v>1856</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="V110">
+        <v>16.3</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111">
         <v>1888</v>
       </c>
@@ -19593,7 +20826,7 @@
         <v>-1.2</v>
       </c>
       <c r="N111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.5416666666666652</v>
       </c>
       <c r="O111">
@@ -19602,8 +20835,19 @@
       <c r="R111" s="4">
         <v>7.166666666666667</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="V111">
+        <v>16.3</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112">
         <v>1889</v>
       </c>
@@ -19644,7 +20888,7 @@
         <v>-5.3</v>
       </c>
       <c r="N112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.3749999999999991</v>
       </c>
       <c r="O112">
@@ -19653,8 +20897,19 @@
       <c r="R112" s="5">
         <v>1850</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="V112">
+        <v>17</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113">
         <v>1890</v>
       </c>
@@ -19695,7 +20950,7 @@
         <v>-8.5</v>
       </c>
       <c r="N113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1166666666666654</v>
       </c>
       <c r="O113">
@@ -19704,8 +20959,19 @@
       <c r="R113" s="5">
         <v>1865</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="V113">
+        <v>20.2</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114">
         <v>1891</v>
       </c>
@@ -19746,7 +21012,7 @@
         <v>-0.2</v>
       </c>
       <c r="N114">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6333333333333329</v>
       </c>
       <c r="O114">
@@ -19755,8 +21021,19 @@
       <c r="R114" s="4">
         <v>7.1666666666666679</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="V114">
+        <v>17.2</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X114">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115">
         <v>1892</v>
       </c>
@@ -19797,7 +21074,7 @@
         <v>-3.1</v>
       </c>
       <c r="N115">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7250000000000005</v>
       </c>
       <c r="O115">
@@ -19806,8 +21083,19 @@
       <c r="R115" s="5">
         <v>1969</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="V115">
+        <v>19.8</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116">
         <v>1893</v>
       </c>
@@ -19848,7 +21136,7 @@
         <v>-0.5</v>
       </c>
       <c r="N116">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0916666666666677</v>
       </c>
       <c r="O116">
@@ -19857,8 +21145,19 @@
       <c r="R116" s="4">
         <v>7.1833333333333336</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="V116">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X116">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117">
         <v>1894</v>
       </c>
@@ -19899,7 +21198,7 @@
         <v>-1.7</v>
       </c>
       <c r="N117">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0833333333333339</v>
       </c>
       <c r="O117">
@@ -19908,8 +21207,19 @@
       <c r="R117" s="5">
         <v>1813</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="V117">
+        <v>17.3</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118">
         <v>1895</v>
       </c>
@@ -19950,7 +21260,7 @@
         <v>-3.1</v>
       </c>
       <c r="N118">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.708333333333333</v>
       </c>
       <c r="O118">
@@ -19959,8 +21269,19 @@
       <c r="R118" s="5">
         <v>1922</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="V118">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119">
         <v>1896</v>
       </c>
@@ -20001,7 +21322,7 @@
         <v>-1.9</v>
       </c>
       <c r="N119">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1583333333333332</v>
       </c>
       <c r="O119">
@@ -20010,8 +21331,19 @@
       <c r="R119" s="4">
         <v>7.1999999999999993</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="V119">
+        <v>16.3</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X119">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120">
         <v>1897</v>
       </c>
@@ -20052,7 +21384,7 @@
         <v>-1.3</v>
       </c>
       <c r="N120">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8500000000000005</v>
       </c>
       <c r="O120">
@@ -20061,8 +21393,19 @@
       <c r="R120" s="5">
         <v>1985</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="V120">
+        <v>18.5</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121">
         <v>1898</v>
       </c>
@@ -20103,7 +21446,7 @@
         <v>2.4</v>
       </c>
       <c r="N121">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.4500000000000011</v>
       </c>
       <c r="O121">
@@ -20112,8 +21455,19 @@
       <c r="R121" s="4">
         <v>7.2166666666666659</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="V121">
+        <v>18</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X121">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122">
         <v>1899</v>
       </c>
@@ -20154,7 +21508,7 @@
         <v>-3.8</v>
       </c>
       <c r="N122">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O122">
@@ -20163,8 +21517,19 @@
       <c r="R122" s="5">
         <v>1883</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="V122">
+        <v>15.7</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X122">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123">
         <v>1900</v>
       </c>
@@ -20205,7 +21570,7 @@
         <v>1.3</v>
       </c>
       <c r="N123">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="O123">
@@ -20214,8 +21579,19 @@
       <c r="R123" s="4">
         <v>7.241666666666668</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="V123">
+        <v>17.5</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124">
         <v>1901</v>
       </c>
@@ -20256,7 +21632,7 @@
         <v>1.4</v>
       </c>
       <c r="N124">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8000000000000016</v>
       </c>
       <c r="O124">
@@ -20265,8 +21641,19 @@
       <c r="R124" s="5">
         <v>1835</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="V124">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X124">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125">
         <v>1902</v>
       </c>
@@ -20307,7 +21694,7 @@
         <v>-5.5</v>
       </c>
       <c r="N125">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4083333333333323</v>
       </c>
       <c r="O125">
@@ -20316,8 +21703,19 @@
       <c r="R125" s="5">
         <v>1965</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="V125">
+        <v>16</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X125">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126">
         <v>1903</v>
       </c>
@@ -20358,7 +21756,7 @@
         <v>-1.5</v>
       </c>
       <c r="N126">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.35</v>
       </c>
       <c r="O126">
@@ -20367,8 +21765,19 @@
       <c r="R126" s="4">
         <v>7.258333333333332</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="V126">
+        <v>16.8</v>
+      </c>
+      <c r="W126">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127">
         <v>1904</v>
       </c>
@@ -20409,7 +21818,7 @@
         <v>0.5</v>
       </c>
       <c r="N127">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2666666666666657</v>
       </c>
       <c r="O127">
@@ -20418,8 +21827,19 @@
       <c r="R127" s="5">
         <v>1877</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="V127">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W127">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128">
         <v>1905</v>
       </c>
@@ -20460,7 +21880,7 @@
         <v>-0.6</v>
       </c>
       <c r="N128">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8083333333333336</v>
       </c>
       <c r="O128">
@@ -20469,8 +21889,19 @@
       <c r="R128" s="4">
         <v>7.2583333333333337</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="V128">
+        <v>18</v>
+      </c>
+      <c r="W128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129">
         <v>1906</v>
       </c>
@@ -20511,7 +21942,7 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="N129">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2000000000000011</v>
       </c>
       <c r="O129">
@@ -20520,8 +21951,19 @@
       <c r="R129" s="5">
         <v>1839</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="V129">
+        <v>16.5</v>
+      </c>
+      <c r="W129">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X129">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130">
         <v>1907</v>
       </c>
@@ -20562,7 +22004,7 @@
         <v>-2.5</v>
       </c>
       <c r="N130">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.875</v>
       </c>
       <c r="O130">
@@ -20571,8 +22013,19 @@
       <c r="R130" s="4">
         <v>7.2666666666666657</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="V130">
+        <v>15.5</v>
+      </c>
+      <c r="W130">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X130">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131">
         <v>1908</v>
       </c>
@@ -20613,7 +22066,7 @@
         <v>-2.9</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N194" si="2">AVERAGE(B131:M131)</f>
+        <f t="shared" ref="N131:N194" si="6">AVERAGE(B131:M131)</f>
         <v>7.2833333333333323</v>
       </c>
       <c r="O131">
@@ -20622,8 +22075,19 @@
       <c r="R131" s="5">
         <v>1904</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="V131">
+        <v>16.5</v>
+      </c>
+      <c r="W131">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <f t="shared" ref="X131:X194" si="7">IF(W131=1, X130+W131, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132">
         <v>1909</v>
       </c>
@@ -20664,7 +22128,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3666666666666645</v>
       </c>
       <c r="O132">
@@ -20673,8 +22137,19 @@
       <c r="R132" s="4">
         <v>7.2749999999999995</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="V132">
+        <v>17.3</v>
+      </c>
+      <c r="W132">
+        <f t="shared" ref="W132:W195" si="8">IF(V132&lt; V131, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133">
         <v>1910</v>
       </c>
@@ -20715,7 +22190,7 @@
         <v>2.4</v>
       </c>
       <c r="N133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.75</v>
       </c>
       <c r="O133">
@@ -20724,8 +22199,19 @@
       <c r="R133" s="5">
         <v>1800</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="V133">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W133">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X133">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134">
         <v>1911</v>
       </c>
@@ -20766,7 +22252,7 @@
         <v>0.7</v>
       </c>
       <c r="N134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.5666666666666682</v>
       </c>
       <c r="O134">
@@ -20775,8 +22261,19 @@
       <c r="R134" s="4">
         <v>7.2833333333333323</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="V134">
+        <v>18.7</v>
+      </c>
+      <c r="W134">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135">
         <v>1912</v>
       </c>
@@ -20817,7 +22314,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="N135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O135">
@@ -20826,8 +22323,19 @@
       <c r="R135" s="5">
         <v>1908</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="V135">
+        <v>15.9</v>
+      </c>
+      <c r="W135">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X135">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136">
         <v>1913</v>
       </c>
@@ -20868,7 +22376,7 @@
         <v>1.8</v>
       </c>
       <c r="N136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.0333333333333332</v>
       </c>
       <c r="O136">
@@ -20877,8 +22385,19 @@
       <c r="R136" s="4">
         <v>7.3250000000000002</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="V136">
+        <v>15.4</v>
+      </c>
+      <c r="W136">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137">
         <v>1914</v>
       </c>
@@ -20919,7 +22438,7 @@
         <v>2.8</v>
       </c>
       <c r="N137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.1750000000000007</v>
       </c>
       <c r="O137">
@@ -20928,8 +22447,19 @@
       <c r="R137" s="5">
         <v>1782</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="V137">
+        <v>17.3</v>
+      </c>
+      <c r="W137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138">
         <v>1915</v>
       </c>
@@ -20970,7 +22500,7 @@
         <v>1</v>
       </c>
       <c r="N138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.7333333333333316</v>
       </c>
       <c r="O138">
@@ -20979,8 +22509,19 @@
       <c r="R138" s="4">
         <v>7.3583333333333334</v>
       </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="V138">
+        <v>16.7</v>
+      </c>
+      <c r="W138">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X138">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139">
         <v>1916</v>
       </c>
@@ -21021,7 +22562,7 @@
         <v>0.6</v>
       </c>
       <c r="N139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.3333333333333321</v>
       </c>
       <c r="O139">
@@ -21030,8 +22571,19 @@
       <c r="R139" s="5">
         <v>1831</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="V139">
+        <v>16.2</v>
+      </c>
+      <c r="W139">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X139">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140">
         <v>1917</v>
       </c>
@@ -21072,7 +22624,7 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="N140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.5583333333333327</v>
       </c>
       <c r="O140">
@@ -21081,8 +22633,19 @@
       <c r="R140" s="4">
         <v>7.3666666666666645</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="V140">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="W140">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X140">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141">
         <v>1918</v>
       </c>
@@ -21123,7 +22686,7 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="N141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.3833333333333346</v>
       </c>
       <c r="O141">
@@ -21132,8 +22695,19 @@
       <c r="R141" s="5">
         <v>1909</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="V141">
+        <v>16.7</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X141">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142">
         <v>1919</v>
       </c>
@@ -21174,7 +22748,7 @@
         <v>-1.9</v>
       </c>
       <c r="N142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.799999999999998</v>
       </c>
       <c r="O142">
@@ -21183,8 +22757,19 @@
       <c r="R142" s="4">
         <v>7.3749999999999991</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="V142">
+        <v>15.5</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X142">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143">
         <v>1920</v>
       </c>
@@ -21225,7 +22810,7 @@
         <v>-2.8</v>
       </c>
       <c r="N143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.3083333333333318</v>
       </c>
       <c r="O143">
@@ -21234,8 +22819,19 @@
       <c r="R143" s="5">
         <v>1818</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="V143">
+        <v>17.2</v>
+      </c>
+      <c r="W143">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144">
         <v>1921</v>
       </c>
@@ -21276,7 +22872,7 @@
         <v>-2.6</v>
       </c>
       <c r="N144">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.9249999999999989</v>
       </c>
       <c r="O144">
@@ -21285,8 +22881,19 @@
       <c r="R144" s="5">
         <v>1889</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="V144">
+        <v>19.3</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145">
         <v>1922</v>
       </c>
@@ -21327,7 +22934,7 @@
         <v>0.8</v>
       </c>
       <c r="N145">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1833333333333336</v>
       </c>
       <c r="O145">
@@ -21336,8 +22943,19 @@
       <c r="R145" s="4">
         <v>7.3833333333333337</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="V145">
+        <v>17</v>
+      </c>
+      <c r="W145">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X145">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146">
         <v>1923</v>
       </c>
@@ -21378,7 +22996,7 @@
         <v>-1.6</v>
       </c>
       <c r="N146">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8083333333333336</v>
       </c>
       <c r="O146">
@@ -21387,8 +23005,19 @@
       <c r="R146" s="5">
         <v>1823</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="V146">
+        <v>15</v>
+      </c>
+      <c r="W146">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X146">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147">
         <v>1924</v>
       </c>
@@ -21429,7 +23058,7 @@
         <v>-1.8</v>
       </c>
       <c r="N147">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.958333333333333</v>
       </c>
       <c r="O147">
@@ -21438,8 +23067,19 @@
       <c r="R147" s="4">
         <v>7.3916666666666666</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="V147">
+        <v>17</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148">
         <v>1925</v>
       </c>
@@ -21480,7 +23120,7 @@
         <v>-1.2</v>
       </c>
       <c r="N148">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.5083333333333329</v>
       </c>
       <c r="O148">
@@ -21489,8 +23129,19 @@
       <c r="R148" s="5">
         <v>1954</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="V148">
+        <v>17.2</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149">
         <v>1926</v>
       </c>
@@ -21531,7 +23182,7 @@
         <v>-1.9</v>
       </c>
       <c r="N149">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.4249999999999989</v>
       </c>
       <c r="O149">
@@ -21540,8 +23191,19 @@
       <c r="R149" s="4">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="V149">
+        <v>15.8</v>
+      </c>
+      <c r="W149">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X149">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150">
         <v>1927</v>
       </c>
@@ -21582,7 +23244,7 @@
         <v>-6.1</v>
       </c>
       <c r="N150">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.5666666666666673</v>
       </c>
       <c r="O150">
@@ -21591,8 +23253,19 @@
       <c r="R150" s="5">
         <v>1978</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="V150">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W150">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151">
         <v>1928</v>
       </c>
@@ -21633,7 +23306,7 @@
         <v>-2.4</v>
       </c>
       <c r="N151">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8083333333333309</v>
       </c>
       <c r="O151">
@@ -21642,8 +23315,19 @@
       <c r="R151" s="4">
         <v>7.458333333333333</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="V151">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152">
         <v>1929</v>
       </c>
@@ -21684,7 +23368,7 @@
         <v>1.6</v>
       </c>
       <c r="N152">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.6333333333333329</v>
       </c>
       <c r="O152">
@@ -21693,8 +23377,19 @@
       <c r="R152" s="5">
         <v>1963</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="V152">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153">
         <v>1930</v>
       </c>
@@ -21735,7 +23430,7 @@
         <v>-2.8</v>
       </c>
       <c r="N153">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.6916666666666664</v>
       </c>
       <c r="O153">
@@ -21744,8 +23439,19 @@
       <c r="R153" s="4">
         <v>7.4666666666666677</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="V153">
+        <v>16.7</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154">
         <v>1931</v>
       </c>
@@ -21786,7 +23492,7 @@
         <v>-0.5</v>
       </c>
       <c r="N154">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.541666666666667</v>
       </c>
       <c r="O154">
@@ -21795,8 +23501,19 @@
       <c r="R154" s="5">
         <v>1962</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="V154">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W154">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155">
         <v>1932</v>
       </c>
@@ -21837,7 +23554,7 @@
         <v>0.4</v>
       </c>
       <c r="N155">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.4500000000000011</v>
       </c>
       <c r="O155">
@@ -21846,8 +23563,19 @@
       <c r="R155" s="4">
         <v>7.4750000000000005</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="V155">
+        <v>19.3</v>
+      </c>
+      <c r="W155">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156">
         <v>1933</v>
       </c>
@@ -21888,7 +23616,7 @@
         <v>-6.5</v>
       </c>
       <c r="N156">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.6166666666666671</v>
       </c>
       <c r="O156">
@@ -21897,8 +23625,19 @@
       <c r="R156" s="5">
         <v>1821</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="V156">
+        <v>17</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157">
         <v>1934</v>
       </c>
@@ -21939,7 +23678,7 @@
         <v>-0.6</v>
       </c>
       <c r="N157">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.4583333333333339</v>
       </c>
       <c r="O157">
@@ -21948,8 +23687,19 @@
       <c r="R157" s="4">
         <v>7.4833333333333334</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="V157">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158">
         <v>1935</v>
       </c>
@@ -21990,7 +23740,7 @@
         <v>0.1</v>
       </c>
       <c r="N158">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.9333333333333327</v>
       </c>
       <c r="O158">
@@ -21999,8 +23749,19 @@
       <c r="R158" s="5">
         <v>1854</v>
       </c>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="V158">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="W158">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159">
         <v>1936</v>
       </c>
@@ -22041,7 +23802,7 @@
         <v>0.8</v>
       </c>
       <c r="N159">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7083333333333339</v>
       </c>
       <c r="O159">
@@ -22050,8 +23811,19 @@
       <c r="R159" s="4">
         <v>7.4833333333333343</v>
       </c>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="V159">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W159">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X159">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160">
         <v>1937</v>
       </c>
@@ -22092,7 +23864,7 @@
         <v>-1.7</v>
       </c>
       <c r="N160">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7833333333333314</v>
       </c>
       <c r="O160">
@@ -22101,8 +23873,19 @@
       <c r="R160" s="5">
         <v>1947</v>
       </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="V160">
+        <v>19.3</v>
+      </c>
+      <c r="W160">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161">
         <v>1938</v>
       </c>
@@ -22143,7 +23926,7 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="N161">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7416666666666654</v>
       </c>
       <c r="O161">
@@ -22152,8 +23935,19 @@
       <c r="R161" s="4">
         <v>7.4916666666666671</v>
       </c>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="V161">
+        <v>20</v>
+      </c>
+      <c r="W161">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162">
         <v>1939</v>
       </c>
@@ -22194,7 +23988,7 @@
         <v>-3</v>
       </c>
       <c r="N162">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.1583333333333332</v>
       </c>
       <c r="O162">
@@ -22203,8 +23997,19 @@
       <c r="R162" s="5">
         <v>1887</v>
       </c>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="V162">
+        <v>21.7</v>
+      </c>
+      <c r="W162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163">
         <v>1940</v>
       </c>
@@ -22245,7 +24050,7 @@
         <v>-4.7</v>
       </c>
       <c r="N163">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5.916666666666667</v>
       </c>
       <c r="O163">
@@ -22254,8 +24059,19 @@
       <c r="R163" s="4">
         <v>7.5083333333333329</v>
       </c>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="V163">
+        <v>15.8</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164">
         <v>1941</v>
       </c>
@@ -22296,7 +24112,7 @@
         <v>-0.1</v>
       </c>
       <c r="N164">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.4166666666666679</v>
       </c>
       <c r="O164">
@@ -22305,8 +24121,19 @@
       <c r="R164" s="5">
         <v>1793</v>
       </c>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="V164">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165">
         <v>1942</v>
       </c>
@@ -22347,7 +24174,7 @@
         <v>1.3</v>
       </c>
       <c r="N165">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.9749999999999988</v>
       </c>
       <c r="O165">
@@ -22356,8 +24183,19 @@
       <c r="R165" s="5">
         <v>1795</v>
       </c>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="V165">
+        <v>20.5</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166">
         <v>1943</v>
       </c>
@@ -22398,7 +24236,7 @@
         <v>-1.2</v>
       </c>
       <c r="N166">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.5499999999999989</v>
       </c>
       <c r="O166">
@@ -22407,8 +24245,19 @@
       <c r="R166" s="4">
         <v>7.5166666666666666</v>
       </c>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="V166">
+        <v>19.5</v>
+      </c>
+      <c r="W166">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X166">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167">
         <v>1944</v>
       </c>
@@ -22449,7 +24298,7 @@
         <v>-1.8</v>
       </c>
       <c r="N167">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.3833333333333346</v>
       </c>
       <c r="O167">
@@ -22458,8 +24307,19 @@
       <c r="R167" s="5">
         <v>1817</v>
       </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="V167">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="W167">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168">
         <v>1945</v>
       </c>
@@ -22500,7 +24360,7 @@
         <v>-1.3</v>
       </c>
       <c r="N168">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.9333333333333345</v>
       </c>
       <c r="O168">
@@ -22509,8 +24369,19 @@
       <c r="R168" s="4">
         <v>7.5249999999999995</v>
       </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="V168">
+        <v>18</v>
+      </c>
+      <c r="W168">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169">
         <v>1946</v>
       </c>
@@ -22551,7 +24422,7 @@
         <v>-3.9</v>
       </c>
       <c r="N169">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.0916666666666668</v>
       </c>
       <c r="O169">
@@ -22560,8 +24431,19 @@
       <c r="R169" s="5">
         <v>1780</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="V169">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="W169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170">
         <v>1947</v>
       </c>
@@ -22602,7 +24484,7 @@
         <v>0.9</v>
       </c>
       <c r="N170">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.4833333333333343</v>
       </c>
       <c r="O170">
@@ -22611,8 +24493,19 @@
       <c r="R170" s="4">
         <v>7.5250000000000012</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="V170">
+        <v>16.8</v>
+      </c>
+      <c r="W170">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171">
         <v>1948</v>
       </c>
@@ -22653,7 +24546,7 @@
         <v>-0.7</v>
       </c>
       <c r="N171">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7249999999999996</v>
       </c>
       <c r="O171">
@@ -22662,8 +24555,19 @@
       <c r="R171" s="5">
         <v>1970</v>
       </c>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="V171">
+        <v>17.8</v>
+      </c>
+      <c r="W171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172">
         <v>1949</v>
       </c>
@@ -22704,7 +24608,7 @@
         <v>2.5</v>
       </c>
       <c r="N172">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.9666666666666668</v>
       </c>
       <c r="O172">
@@ -22713,8 +24617,19 @@
       <c r="R172" s="4">
         <v>7.541666666666667</v>
       </c>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="V172">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W172">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173">
         <v>1950</v>
       </c>
@@ -22755,7 +24670,7 @@
         <v>0.4</v>
       </c>
       <c r="N173">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.625</v>
       </c>
       <c r="O173">
@@ -22764,8 +24679,19 @@
       <c r="R173" s="5">
         <v>1931</v>
       </c>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="V173">
+        <v>18.3</v>
+      </c>
+      <c r="W173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174">
         <v>1951</v>
       </c>
@@ -22806,7 +24732,7 @@
         <v>2.1</v>
       </c>
       <c r="N174">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.9999999999999982</v>
       </c>
       <c r="O174">
@@ -22815,8 +24741,19 @@
       <c r="R174" s="5">
         <v>1996</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="V174">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="W174">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175">
         <v>1952</v>
       </c>
@@ -22857,7 +24794,7 @@
         <v>-1.3</v>
       </c>
       <c r="N175">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.7250000000000005</v>
       </c>
       <c r="O175">
@@ -22866,8 +24803,19 @@
       <c r="R175" s="4">
         <v>7.5583333333333327</v>
       </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="V175">
+        <v>19.2</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176">
         <v>1953</v>
       </c>
@@ -22908,7 +24856,7 @@
         <v>-0.8</v>
       </c>
       <c r="N176">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.6833333333333336</v>
       </c>
       <c r="O176">
@@ -22917,8 +24865,19 @@
       <c r="R176" s="5">
         <v>1917</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="V176">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="W176">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177">
         <v>1954</v>
       </c>
@@ -22959,7 +24918,7 @@
         <v>2.6</v>
       </c>
       <c r="N177">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3916666666666666</v>
       </c>
       <c r="O177">
@@ -22968,8 +24927,19 @@
       <c r="R177" s="4">
         <v>7.5583333333333336</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="V177">
+        <v>18</v>
+      </c>
+      <c r="W177">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X177">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178">
         <v>1955</v>
       </c>
@@ -23010,7 +24980,7 @@
         <v>0.6</v>
       </c>
       <c r="N178">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.8249999999999993</v>
       </c>
       <c r="O178">
@@ -23019,8 +24989,19 @@
       <c r="R178" s="5">
         <v>1976</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="V178">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="W178">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179">
         <v>1956</v>
       </c>
@@ -23061,7 +25042,7 @@
         <v>-0.3</v>
       </c>
       <c r="N179">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.366666666666668</v>
       </c>
       <c r="O179">
@@ -23070,8 +25051,19 @@
       <c r="R179" s="4">
         <v>7.5666666666666673</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="V179">
+        <v>15.8</v>
+      </c>
+      <c r="W179">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X179">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180">
         <v>1957</v>
       </c>
@@ -23112,7 +25104,7 @@
         <v>-1.3</v>
       </c>
       <c r="N180">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.5333333333333332</v>
       </c>
       <c r="O180">
@@ -23121,8 +25113,19 @@
       <c r="R180" s="5">
         <v>1927</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="V180">
+        <v>16.5</v>
+      </c>
+      <c r="W180">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181">
         <v>1958</v>
       </c>
@@ -23163,7 +25166,7 @@
         <v>1.3</v>
       </c>
       <c r="N181">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.0666666666666664</v>
       </c>
       <c r="O181">
@@ -23172,8 +25175,19 @@
       <c r="R181" s="4">
         <v>7.583333333333333</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="V181">
+        <v>17.8</v>
+      </c>
+      <c r="W181">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182">
         <v>1959</v>
       </c>
@@ -23214,7 +25228,7 @@
         <v>-1.4</v>
       </c>
       <c r="N182">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.7499999999999982</v>
       </c>
       <c r="O182">
@@ -23223,8 +25237,19 @@
       <c r="R182" s="5">
         <v>1857</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="V182">
+        <v>19.3</v>
+      </c>
+      <c r="W182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183">
         <v>1960</v>
       </c>
@@ -23265,7 +25290,7 @@
         <v>2.9</v>
       </c>
       <c r="N183">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.1833333333333336</v>
       </c>
       <c r="O183">
@@ -23274,8 +25299,19 @@
       <c r="R183" s="4">
         <v>7.5916666666666659</v>
       </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="V183">
+        <v>17</v>
+      </c>
+      <c r="W183">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X183">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184">
         <v>1961</v>
       </c>
@@ -23316,7 +25352,7 @@
         <v>-3.1</v>
       </c>
       <c r="N184">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.8250000000000011</v>
       </c>
       <c r="O184">
@@ -23325,8 +25361,19 @@
       <c r="R184" s="5">
         <v>1819</v>
       </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="V184">
+        <v>16.8</v>
+      </c>
+      <c r="W184">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X184">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185">
         <v>1962</v>
       </c>
@@ -23367,7 +25414,7 @@
         <v>-4.2</v>
       </c>
       <c r="N185">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.4666666666666677</v>
       </c>
       <c r="O185">
@@ -23376,8 +25423,19 @@
       <c r="R185" s="4">
         <v>7.6000000000000005</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="V185">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="W185">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186">
         <v>1963</v>
       </c>
@@ -23418,7 +25476,7 @@
         <v>-4.5</v>
       </c>
       <c r="N186">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.458333333333333</v>
       </c>
       <c r="O186">
@@ -23427,8 +25485,19 @@
       <c r="R186" s="5">
         <v>1787</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="V186">
+        <v>19.8</v>
+      </c>
+      <c r="W186">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187">
         <v>1964</v>
       </c>
@@ -23469,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.0333333333333332</v>
       </c>
       <c r="O187">
@@ -23478,8 +25547,19 @@
       <c r="R187" s="5">
         <v>1792</v>
       </c>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="V187">
+        <v>16.8</v>
+      </c>
+      <c r="W187">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X187">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188">
         <v>1965</v>
       </c>
@@ -23520,7 +25600,7 @@
         <v>0.7</v>
       </c>
       <c r="N188">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.241666666666668</v>
       </c>
       <c r="O188">
@@ -23529,8 +25609,19 @@
       <c r="R188" s="4">
         <v>7.625</v>
       </c>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="V188">
+        <v>16.3</v>
+      </c>
+      <c r="W188">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X188">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189">
         <v>1966</v>
       </c>
@@ -23571,7 +25662,7 @@
         <v>0</v>
       </c>
       <c r="N189">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.5499999999999989</v>
       </c>
       <c r="O189">
@@ -23580,8 +25671,19 @@
       <c r="R189" s="5">
         <v>1851</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="V189">
+        <v>17.5</v>
+      </c>
+      <c r="W189">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190">
         <v>1967</v>
       </c>
@@ -23622,7 +25724,7 @@
         <v>-1</v>
       </c>
       <c r="N190">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.2333333333333325</v>
       </c>
       <c r="O190">
@@ -23631,8 +25733,19 @@
       <c r="R190" s="4">
         <v>7.6333333333333329</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="V190">
+        <v>18</v>
+      </c>
+      <c r="W190">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191">
         <v>1968</v>
       </c>
@@ -23673,7 +25786,7 @@
         <v>-3.5</v>
       </c>
       <c r="N191">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.2999999999999989</v>
       </c>
       <c r="O191">
@@ -23682,8 +25795,19 @@
       <c r="R191" s="5">
         <v>1891</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="V191">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W191">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192">
         <v>1969</v>
       </c>
@@ -23724,7 +25848,7 @@
         <v>-8.1</v>
       </c>
       <c r="N192">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1666666666666679</v>
       </c>
       <c r="O192">
@@ -23733,8 +25857,19 @@
       <c r="R192" s="5">
         <v>1979</v>
       </c>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="V192">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W192">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X192">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193">
         <v>1970</v>
       </c>
@@ -23775,7 +25910,7 @@
         <v>0.9</v>
       </c>
       <c r="N193">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.5250000000000012</v>
       </c>
       <c r="O193">
@@ -23784,8 +25919,19 @@
       <c r="R193" s="4">
         <v>7.6499999999999995</v>
       </c>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="V193">
+        <v>17.7</v>
+      </c>
+      <c r="W193">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194">
         <v>1971</v>
       </c>
@@ -23826,7 +25972,7 @@
         <v>3.2</v>
       </c>
       <c r="N194">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.625</v>
       </c>
       <c r="O194">
@@ -23835,8 +25981,19 @@
       <c r="R194" s="5">
         <v>1861</v>
       </c>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="V194">
+        <v>19.7</v>
+      </c>
+      <c r="W194">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195">
         <v>1972</v>
       </c>
@@ -23877,7 +26034,7 @@
         <v>0.1</v>
       </c>
       <c r="N195">
-        <f t="shared" ref="N195:N229" si="3">AVERAGE(B195:M195)</f>
+        <f t="shared" ref="N195:N229" si="9">AVERAGE(B195:M195)</f>
         <v>8.1666666666666661</v>
       </c>
       <c r="O195">
@@ -23886,8 +26043,19 @@
       <c r="R195" s="4">
         <v>7.6833333333333345</v>
       </c>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="V195">
+        <v>17.3</v>
+      </c>
+      <c r="W195">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="X195">
+        <f t="shared" ref="X195:X229" si="10">IF(W195=1, X194+W195, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196">
         <v>1973</v>
       </c>
@@ -23928,7 +26096,7 @@
         <v>-0.6</v>
       </c>
       <c r="N196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.3750000000000018</v>
       </c>
       <c r="O196">
@@ -23937,8 +26105,19 @@
       <c r="R196" s="5">
         <v>1885</v>
       </c>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="V196">
+        <v>18.7</v>
+      </c>
+      <c r="W196">
+        <f t="shared" ref="W196:W229" si="11">IF(V196&lt; V195, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197">
         <v>1974</v>
       </c>
@@ -23979,7 +26158,7 @@
         <v>2.6</v>
       </c>
       <c r="N197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.5083333333333346</v>
       </c>
       <c r="O197">
@@ -23988,8 +26167,19 @@
       <c r="R197" s="4">
         <v>7.708333333333333</v>
       </c>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="V197">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W197">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X197">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198">
         <v>1975</v>
       </c>
@@ -24030,7 +26220,7 @@
         <v>1.2</v>
       </c>
       <c r="N198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.4833333333333325</v>
       </c>
       <c r="O198">
@@ -24039,8 +26229,19 @@
       <c r="R198" s="5">
         <v>1895</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="V198">
+        <v>19.3</v>
+      </c>
+      <c r="W198">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X198">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199">
         <v>1976</v>
       </c>
@@ -24081,7 +26282,7 @@
         <v>-1</v>
       </c>
       <c r="N199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.5583333333333336</v>
       </c>
       <c r="O199">
@@ -24090,8 +26291,19 @@
       <c r="R199" s="4">
         <v>7.7166666666666659</v>
       </c>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="V199">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="W199">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X199">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200">
         <v>1977</v>
       </c>
@@ -24132,7 +26344,7 @@
         <v>-0.6</v>
       </c>
       <c r="N200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.375</v>
       </c>
       <c r="O200">
@@ -24141,8 +26353,19 @@
       <c r="R200" s="5">
         <v>1880</v>
       </c>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="V200">
+        <v>16</v>
+      </c>
+      <c r="W200">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X200">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201">
         <v>1978</v>
       </c>
@@ -24183,7 +26406,7 @@
         <v>-4</v>
       </c>
       <c r="N201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.45</v>
       </c>
       <c r="O201">
@@ -24192,8 +26415,19 @@
       <c r="R201" s="4">
         <v>7.7250000000000005</v>
       </c>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="V201">
+        <v>16.3</v>
+      </c>
+      <c r="W201">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202">
         <v>1979</v>
       </c>
@@ -24234,7 +26468,7 @@
         <v>1.7</v>
       </c>
       <c r="N202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.6333333333333329</v>
       </c>
       <c r="O202">
@@ -24243,8 +26477,19 @@
       <c r="R202" s="5">
         <v>1874</v>
       </c>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="V202">
+        <v>17</v>
+      </c>
+      <c r="W202">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203">
         <v>1980</v>
       </c>
@@ -24285,7 +26530,7 @@
         <v>-0.5</v>
       </c>
       <c r="N203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.8916666666666684</v>
       </c>
       <c r="O203">
@@ -24294,8 +26539,19 @@
       <c r="R203" s="5">
         <v>1892</v>
       </c>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="V203">
+        <v>16.8</v>
+      </c>
+      <c r="W203">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X203">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
       <c r="A204">
         <v>1981</v>
       </c>
@@ -24336,7 +26592,7 @@
         <v>-3.3</v>
       </c>
       <c r="N204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.0750000000000011</v>
       </c>
       <c r="O204">
@@ -24345,8 +26601,19 @@
       <c r="R204" s="5">
         <v>1952</v>
       </c>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="V204">
+        <v>16.8</v>
+      </c>
+      <c r="W204">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205">
         <v>1982</v>
       </c>
@@ -24387,7 +26654,7 @@
         <v>1.5</v>
       </c>
       <c r="N205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.8833333333333329</v>
       </c>
       <c r="O205">
@@ -24396,8 +26663,19 @@
       <c r="R205" s="4">
         <v>7.7333333333333316</v>
       </c>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="V205">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="W205">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206">
         <v>1983</v>
       </c>
@@ -24438,7 +26716,7 @@
         <v>-0.3</v>
       </c>
       <c r="N206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.6166666666666689</v>
       </c>
       <c r="O206">
@@ -24447,8 +26725,19 @@
       <c r="R206" s="5">
         <v>1915</v>
       </c>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="V206">
+        <v>19</v>
+      </c>
+      <c r="W206">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X206">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24">
       <c r="A207">
         <v>1984</v>
       </c>
@@ -24489,7 +26778,7 @@
         <v>-1</v>
       </c>
       <c r="N207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.2083333333333339</v>
       </c>
       <c r="O207">
@@ -24498,8 +26787,19 @@
       <c r="R207" s="4">
         <v>7.7666666666666666</v>
       </c>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="V207">
+        <v>18.5</v>
+      </c>
+      <c r="W207">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X207">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208">
         <v>1985</v>
       </c>
@@ -24540,7 +26840,7 @@
         <v>1.9</v>
       </c>
       <c r="N208">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="O208">
@@ -24549,8 +26849,19 @@
       <c r="R208" s="5">
         <v>1826</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="V208">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W208">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X208">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209">
         <v>1986</v>
       </c>
@@ -24591,7 +26902,7 @@
         <v>0.1</v>
       </c>
       <c r="N209">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.9750000000000005</v>
       </c>
       <c r="O209">
@@ -24600,8 +26911,19 @@
       <c r="R209" s="4">
         <v>7.791666666666667</v>
       </c>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="V209">
+        <v>17.7</v>
+      </c>
+      <c r="W209">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X209">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210">
         <v>1987</v>
       </c>
@@ -24642,7 +26964,7 @@
         <v>0.9</v>
       </c>
       <c r="N210">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>6.8916666666666666</v>
       </c>
       <c r="O210">
@@ -24651,8 +26973,19 @@
       <c r="R210" s="5">
         <v>1784</v>
       </c>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="V210">
+        <v>15.6</v>
+      </c>
+      <c r="W210">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X210">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211">
         <v>1988</v>
       </c>
@@ -24693,7 +27026,7 @@
         <v>0.9</v>
       </c>
       <c r="N211">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.5916666666666668</v>
       </c>
       <c r="O211">
@@ -24702,8 +27035,19 @@
       <c r="R211" s="4">
         <v>7.8000000000000016</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="V211">
+        <v>17.7</v>
+      </c>
+      <c r="W211">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212">
         <v>1989</v>
       </c>
@@ -24744,7 +27088,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N212">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.8166666666666664</v>
       </c>
       <c r="O212">
@@ -24753,8 +27097,19 @@
       <c r="R212" s="5">
         <v>1901</v>
       </c>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="V212">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="W212">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213">
         <v>1990</v>
       </c>
@@ -24795,7 +27150,7 @@
         <v>0.1</v>
       </c>
       <c r="N213">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.7166666666666668</v>
       </c>
       <c r="O213">
@@ -24804,8 +27159,19 @@
       <c r="R213" s="4">
         <v>7.8083333333333309</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="V213">
+        <v>18</v>
+      </c>
+      <c r="W213">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X213">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24">
       <c r="A214">
         <v>1991</v>
       </c>
@@ -24846,7 +27212,7 @@
         <v>-0.8</v>
       </c>
       <c r="N214">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.5833333333333339</v>
       </c>
       <c r="O214">
@@ -24855,8 +27221,19 @@
       <c r="R214" s="5">
         <v>1928</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="V214">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W214">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215">
         <v>1992</v>
       </c>
@@ -24897,7 +27274,7 @@
         <v>0</v>
       </c>
       <c r="N215">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.3583333333333325</v>
       </c>
       <c r="O215">
@@ -24906,8 +27283,19 @@
       <c r="R215" s="4">
         <v>7.8083333333333336</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="V215">
+        <v>22</v>
+      </c>
+      <c r="W215">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216">
         <v>1993</v>
       </c>
@@ -24948,7 +27336,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="N216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.3000000000000007</v>
       </c>
       <c r="O216">
@@ -24957,8 +27345,19 @@
       <c r="R216" s="5">
         <v>1905</v>
       </c>
-    </row>
-    <row r="217" spans="1:18">
+      <c r="V216">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="W216">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X216">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217">
         <v>1994</v>
       </c>
@@ -24999,7 +27398,7 @@
         <v>0.9</v>
       </c>
       <c r="N217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="O217">
@@ -25008,8 +27407,19 @@
       <c r="R217" s="5">
         <v>1923</v>
       </c>
-    </row>
-    <row r="218" spans="1:18">
+      <c r="V217">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="W217">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218">
         <v>1995</v>
       </c>
@@ -25050,7 +27460,7 @@
         <v>-4.8</v>
       </c>
       <c r="N218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.7083333333333339</v>
       </c>
       <c r="O218">
@@ -25059,8 +27469,19 @@
       <c r="R218" s="4">
         <v>7.8249999999999993</v>
       </c>
-    </row>
-    <row r="219" spans="1:18">
+      <c r="V218">
+        <v>19.2</v>
+      </c>
+      <c r="W218">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219">
         <v>1996</v>
       </c>
@@ -25101,7 +27522,7 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="N219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>7.541666666666667</v>
       </c>
       <c r="O219">
@@ -25110,8 +27531,19 @@
       <c r="R219" s="5">
         <v>1955</v>
       </c>
-    </row>
-    <row r="220" spans="1:18">
+      <c r="V219">
+        <v>19.2</v>
+      </c>
+      <c r="W219">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24">
       <c r="A220">
         <v>1997</v>
       </c>
@@ -25152,7 +27584,7 @@
         <v>0.3</v>
       </c>
       <c r="N220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.6083333333333325</v>
       </c>
       <c r="O220">
@@ -25161,8 +27593,19 @@
       <c r="R220" s="4">
         <v>7.8333333333333357</v>
       </c>
-    </row>
-    <row r="221" spans="1:18">
+      <c r="V220">
+        <v>19.7</v>
+      </c>
+      <c r="W220">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24">
       <c r="A221">
         <v>1998</v>
       </c>
@@ -25203,7 +27646,7 @@
         <v>-1.8</v>
       </c>
       <c r="N221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="O221">
@@ -25212,8 +27655,19 @@
       <c r="R221" s="5">
         <v>1836</v>
       </c>
-    </row>
-    <row r="222" spans="1:18">
+      <c r="V221">
+        <v>17.2</v>
+      </c>
+      <c r="W221">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X221">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222">
         <v>1999</v>
       </c>
@@ -25254,7 +27708,7 @@
         <v>0.7</v>
       </c>
       <c r="N222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.1666666666666679</v>
       </c>
       <c r="O222">
@@ -25263,8 +27717,19 @@
       <c r="R222" s="4">
         <v>7.8500000000000005</v>
       </c>
-    </row>
-    <row r="223" spans="1:18">
+      <c r="V222">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W222">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223">
         <v>2000</v>
       </c>
@@ -25305,7 +27770,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.6083333333333325</v>
       </c>
       <c r="O223">
@@ -25314,8 +27779,19 @@
       <c r="R223" s="5">
         <v>1897</v>
       </c>
-    </row>
-    <row r="224" spans="1:18">
+      <c r="V223">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="W223">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224">
         <v>2001</v>
       </c>
@@ -25356,7 +27832,7 @@
         <v>-4.2</v>
       </c>
       <c r="N224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="O224">
@@ -25365,8 +27841,19 @@
       <c r="R224" s="4">
         <v>7.8583333333333343</v>
       </c>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="V224">
+        <v>19.3</v>
+      </c>
+      <c r="W224">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225">
         <v>2002</v>
       </c>
@@ -25407,7 +27894,7 @@
         <v>-6.6</v>
       </c>
       <c r="N225">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>9.3000000000000007</v>
       </c>
       <c r="O225">
@@ -25416,8 +27903,19 @@
       <c r="R225" s="5">
         <v>1796</v>
       </c>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="V225">
+        <v>20.7</v>
+      </c>
+      <c r="W225">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
       <c r="A226">
         <v>2003</v>
       </c>
@@ -25458,7 +27956,7 @@
         <v>0.9</v>
       </c>
       <c r="N226">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.2416666666666689</v>
       </c>
       <c r="O226">
@@ -25467,8 +27965,19 @@
       <c r="R226" s="4">
         <v>7.8666666666666663</v>
       </c>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="V226">
+        <v>18.7</v>
+      </c>
+      <c r="W226">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
       <c r="A227">
         <v>2004</v>
       </c>
@@ -25509,7 +28018,7 @@
         <v>1.8</v>
       </c>
       <c r="N227">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.4</v>
       </c>
       <c r="O227">
@@ -25518,8 +28027,19 @@
       <c r="R227" s="5">
         <v>1833</v>
       </c>
-    </row>
-    <row r="228" spans="1:18">
+      <c r="V227">
+        <v>19</v>
+      </c>
+      <c r="W227">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228">
         <v>2005</v>
       </c>
@@ -25560,7 +28080,7 @@
         <v>-0.3</v>
       </c>
       <c r="N228">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.5666666666666682</v>
       </c>
       <c r="O228">
@@ -25569,8 +28089,19 @@
       <c r="R228" s="4">
         <v>7.9083333333333314</v>
       </c>
-    </row>
-    <row r="229" spans="1:18">
+      <c r="V228">
+        <v>17.7</v>
+      </c>
+      <c r="W228">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
       <c r="A229">
         <v>2006</v>
       </c>
@@ -25611,7 +28142,7 @@
         <v>3.9</v>
       </c>
       <c r="N229">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>8.9583333333333339</v>
       </c>
       <c r="O229">
@@ -25620,58 +28151,69 @@
       <c r="R229" s="5">
         <v>1852</v>
       </c>
-    </row>
-    <row r="230" spans="1:18">
+      <c r="V229">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="W229">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
       <c r="R230" s="4">
         <v>7.9250000000000007</v>
       </c>
     </row>
-    <row r="231" spans="1:18">
+    <row r="231" spans="1:24">
       <c r="R231" s="5">
         <v>1886</v>
       </c>
     </row>
-    <row r="232" spans="1:18">
+    <row r="232" spans="1:24">
       <c r="R232" s="4">
         <v>7.9333333333333327</v>
       </c>
     </row>
-    <row r="233" spans="1:18">
+    <row r="233" spans="1:24">
       <c r="R233" s="5">
         <v>1935</v>
       </c>
     </row>
-    <row r="234" spans="1:18">
+    <row r="234" spans="1:24">
       <c r="R234" s="4">
         <v>7.9333333333333345</v>
       </c>
     </row>
-    <row r="235" spans="1:18">
+    <row r="235" spans="1:24">
       <c r="R235" s="5">
         <v>1945</v>
       </c>
     </row>
-    <row r="236" spans="1:18">
+    <row r="236" spans="1:24">
       <c r="R236" s="4">
         <v>7.9749999999999988</v>
       </c>
     </row>
-    <row r="237" spans="1:18">
+    <row r="237" spans="1:24">
       <c r="R237" s="5">
         <v>1848</v>
       </c>
     </row>
-    <row r="238" spans="1:18">
+    <row r="238" spans="1:24">
       <c r="R238" s="4">
         <v>7.9750000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:18">
+    <row r="239" spans="1:24">
       <c r="R239" s="5">
         <v>1986</v>
       </c>
     </row>
-    <row r="240" spans="1:18">
+    <row r="240" spans="1:24">
       <c r="R240" s="4">
         <v>8</v>
       </c>
@@ -26632,8 +29174,13 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$T$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
